--- a/100runs/run097/NotionalETEOutput097.xlsx
+++ b/100runs/run097/NotionalETEOutput097.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="18">
   <si>
     <t>uniqueid</t>
   </si>
@@ -55,16 +55,13 @@
     <t>Missile_HIGHWIND_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_351.MISSILE_BRAVER_351</t>
+    <t>MISSILE_BRAVER_82.MISSILE_BRAVER_82</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_322.MISSILE_BRAVER_322</t>
+    <t>MISSILE_HIGHWIND_189.MISSILE_HIGHWIND_189</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_400.MISSILE_BRAVER_400</t>
-  </si>
-  <si>
-    <t>MISSILE_HIGHWIND_76.MISSILE_HIGHWIND_76</t>
+    <t>MISSILE_HIGHWIND_343.MISSILE_HIGHWIND_343</t>
   </si>
   <si>
     <t>MISSILE_BRAVER</t>
@@ -428,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K213"/>
+  <dimension ref="A1:K160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -480,28 +477,28 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>168.5463706001067</v>
+        <v>1116576.840290752</v>
       </c>
       <c r="G2">
-        <v>-53.57210485830409</v>
+        <v>4841127.163464619</v>
       </c>
       <c r="H2">
-        <v>966.3996809159557</v>
+        <v>3985222.929850425</v>
       </c>
       <c r="I2">
-        <v>-1680.694121282761</v>
+        <v>1114861.367136769</v>
       </c>
       <c r="J2">
-        <v>1985.583573585859</v>
+        <v>4843226.219469232</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984366.138854083</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -515,28 +512,28 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>168.5463706001067</v>
+        <v>1116576.840290752</v>
       </c>
       <c r="G3">
-        <v>-53.57210485830409</v>
+        <v>4841127.163464619</v>
       </c>
       <c r="H3">
-        <v>966.3996809159557</v>
+        <v>3985222.929850425</v>
       </c>
       <c r="I3">
-        <v>-1647.512744081685</v>
+        <v>1114890.981133491</v>
       </c>
       <c r="J3">
-        <v>1937.282676371427</v>
+        <v>4843177.567851414</v>
       </c>
       <c r="K3">
-        <v>352.6131024040305</v>
+        <v>3984669.93452717</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,28 +547,28 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>168.5463706001067</v>
+        <v>1116576.840290752</v>
       </c>
       <c r="G4">
-        <v>-53.57210485830409</v>
+        <v>4841127.163464619</v>
       </c>
       <c r="H4">
-        <v>966.3996809159557</v>
+        <v>3985222.929850425</v>
       </c>
       <c r="I4">
-        <v>-1613.514305993339</v>
+        <v>1114921.324347638</v>
       </c>
       <c r="J4">
-        <v>1888.981779156996</v>
+        <v>4843128.916233596</v>
       </c>
       <c r="K4">
-        <v>687.6432992017604</v>
+        <v>3984958.581555448</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,28 +582,28 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>168.5463706001067</v>
+        <v>1116576.840290752</v>
       </c>
       <c r="G5">
-        <v>-53.57210485830409</v>
+        <v>4841127.163464619</v>
       </c>
       <c r="H5">
-        <v>966.3996809159557</v>
+        <v>3985222.929850425</v>
       </c>
       <c r="I5">
-        <v>-1578.678687645058</v>
+        <v>1114952.414735517</v>
       </c>
       <c r="J5">
-        <v>1840.680881942564</v>
+        <v>4843080.26461578</v>
       </c>
       <c r="K5">
-        <v>1005.090590393192</v>
+        <v>3985232.079938917</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,28 +617,28 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>168.5463706001067</v>
+        <v>1116576.840290752</v>
       </c>
       <c r="G6">
-        <v>-53.57210485830409</v>
+        <v>4841127.163464619</v>
       </c>
       <c r="H6">
-        <v>966.3996809159557</v>
+        <v>3985222.929850425</v>
       </c>
       <c r="I6">
-        <v>-1542.985274243131</v>
+        <v>1114984.270695596</v>
       </c>
       <c r="J6">
-        <v>1792.379984728133</v>
+        <v>4843031.612997962</v>
       </c>
       <c r="K6">
-        <v>1304.954975978323</v>
+        <v>3985490.429677576</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,28 +652,28 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>168.5463706001067</v>
+        <v>1116576.840290752</v>
       </c>
       <c r="G7">
-        <v>-53.57210485830409</v>
+        <v>4841127.163464619</v>
       </c>
       <c r="H7">
-        <v>966.3996809159557</v>
+        <v>3985222.929850425</v>
       </c>
       <c r="I7">
-        <v>-1506.41294337352</v>
+        <v>1115016.911079385</v>
       </c>
       <c r="J7">
-        <v>1744.079087513702</v>
+        <v>4842982.961380146</v>
       </c>
       <c r="K7">
-        <v>1587.236455957157</v>
+        <v>3985733.630771426</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,28 +687,28 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>168.5463706001067</v>
+        <v>1116576.840290752</v>
       </c>
       <c r="G8">
-        <v>-53.57210485830409</v>
+        <v>4841127.163464619</v>
       </c>
       <c r="H8">
-        <v>966.3996809159557</v>
+        <v>3985222.929850425</v>
       </c>
       <c r="I8">
-        <v>-1468.940052502173</v>
+        <v>1115050.355202596</v>
       </c>
       <c r="J8">
-        <v>1695.77819029927</v>
+        <v>4842934.309762327</v>
       </c>
       <c r="K8">
-        <v>1851.93503032969</v>
+        <v>3985961.683220465</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -725,28 +722,28 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>168.5463706001067</v>
+        <v>1116576.840290752</v>
       </c>
       <c r="G9">
-        <v>-53.57210485830409</v>
+        <v>4841127.163464619</v>
       </c>
       <c r="H9">
-        <v>966.3996809159557</v>
+        <v>3985222.929850425</v>
       </c>
       <c r="I9">
-        <v>-1430.544426167546</v>
+        <v>1115084.622856573</v>
       </c>
       <c r="J9">
-        <v>1647.477293084838</v>
+        <v>4842885.65814451</v>
       </c>
       <c r="K9">
-        <v>2099.050699095925</v>
+        <v>3986174.587024696</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -760,28 +757,28 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>168.5463706001067</v>
+        <v>1116576.840290752</v>
       </c>
       <c r="G10">
-        <v>-44.72584239065393</v>
+        <v>4841143.676292699</v>
       </c>
       <c r="H10">
-        <v>966.3996809159557</v>
+        <v>3985222.929850425</v>
       </c>
       <c r="I10">
-        <v>-1391.203342857757</v>
+        <v>1115119.734320003</v>
       </c>
       <c r="J10">
-        <v>1599.176395870407</v>
+        <v>4842837.006526693</v>
       </c>
       <c r="K10">
-        <v>2328.583462255859</v>
+        <v>3986372.342184116</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -795,28 +792,28 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>130.811645608396</v>
+        <v>1116528.15979951</v>
       </c>
       <c r="G11">
-        <v>-35.87957992300377</v>
+        <v>4841160.189120777</v>
       </c>
       <c r="H11">
-        <v>1190.597903931064</v>
+        <v>3985422.183987284</v>
       </c>
       <c r="I11">
-        <v>-1350.893521564598</v>
+        <v>1115155.710370919</v>
       </c>
       <c r="J11">
-        <v>1550.875498655976</v>
+        <v>4842788.354908876</v>
       </c>
       <c r="K11">
-        <v>2540.533319809494</v>
+        <v>3986554.948698727</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,28 +827,28 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>108.6443876539152</v>
+        <v>1116499.562452983</v>
       </c>
       <c r="G12">
-        <v>-27.03331745535362</v>
+        <v>4841176.701948857</v>
       </c>
       <c r="H12">
-        <v>1324.141831491282</v>
+        <v>3985540.86994144</v>
       </c>
       <c r="I12">
-        <v>-1309.59110800645</v>
+        <v>1115192.57229899</v>
       </c>
       <c r="J12">
-        <v>1502.574601441544</v>
+        <v>4842739.703291059</v>
       </c>
       <c r="K12">
-        <v>2734.90027175683</v>
+        <v>3986722.40656853</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -865,28 +862,28 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>94.65078816072173</v>
+        <v>1116481.509709847</v>
       </c>
       <c r="G13">
-        <v>-18.18705498770347</v>
+        <v>4841193.214776937</v>
       </c>
       <c r="H13">
-        <v>1419.576650629559</v>
+        <v>3985625.686771199</v>
       </c>
       <c r="I13">
-        <v>-1267.271660511956</v>
+        <v>1115230.341918129</v>
       </c>
       <c r="J13">
-        <v>1454.273704227112</v>
+        <v>4842691.051673241</v>
       </c>
       <c r="K13">
-        <v>2911.684318097867</v>
+        <v>3986874.715793522</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -900,28 +897,28 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>84.89170867752375</v>
+        <v>1116468.919800065</v>
       </c>
       <c r="G14">
-        <v>-9.340792520053306</v>
+        <v>4841209.727605016</v>
       </c>
       <c r="H14">
-        <v>1493.891693163294</v>
+        <v>3985691.733591091</v>
       </c>
       <c r="I14">
-        <v>-1223.910135556089</v>
+        <v>1115269.041579391</v>
       </c>
       <c r="J14">
-        <v>1405.972807012681</v>
+        <v>4842642.400055424</v>
       </c>
       <c r="K14">
-        <v>3070.885458832605</v>
+        <v>3987011.876373705</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -935,28 +932,28 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>77.61114313197253</v>
+        <v>1116459.527350342</v>
       </c>
       <c r="G15">
-        <v>-0.4945300524031542</v>
+        <v>4841226.240433096</v>
       </c>
       <c r="H15">
-        <v>1554.761477398556</v>
+        <v>3985745.831059642</v>
       </c>
       <c r="I15">
-        <v>-1179.480872940054</v>
+        <v>1115308.694184209</v>
       </c>
       <c r="J15">
-        <v>1357.67190979825</v>
+        <v>4842593.748437607</v>
       </c>
       <c r="K15">
-        <v>3212.503693961043</v>
+        <v>3987133.888309078</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -970,28 +967,28 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>71.91875757618797</v>
+        <v>1116452.183766276</v>
       </c>
       <c r="G16">
-        <v>8.351732415247005</v>
+        <v>4841242.753261175</v>
       </c>
       <c r="H16">
-        <v>1606.31374136693</v>
+        <v>3985791.64766658</v>
       </c>
       <c r="I16">
-        <v>-1133.957580606272</v>
+        <v>1115349.32319794</v>
       </c>
       <c r="J16">
-        <v>1309.371012583818</v>
+        <v>4842545.096819789</v>
       </c>
       <c r="K16">
-        <v>3336.539023483182</v>
+        <v>3987240.751599642</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1005,28 +1002,28 @@
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>67.31320318537527</v>
+        <v>1116446.242272062</v>
       </c>
       <c r="G17">
-        <v>17.19799488289716</v>
+        <v>4841259.266089254</v>
       </c>
       <c r="H17">
-        <v>1651.025941292978</v>
+        <v>3985831.385228651</v>
       </c>
       <c r="I17">
-        <v>-1087.313319079432</v>
+        <v>1115390.952663757</v>
       </c>
       <c r="J17">
-        <v>1261.070115369386</v>
+        <v>4842496.445201972</v>
       </c>
       <c r="K17">
-        <v>3442.991447399021</v>
+        <v>3987332.466245396</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1040,28 +1037,28 @@
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>63.48895199003776</v>
+        <v>1116441.308714792</v>
       </c>
       <c r="G18">
-        <v>26.04425735054732</v>
+        <v>4841275.778917334</v>
       </c>
       <c r="H18">
-        <v>1690.502389390129</v>
+        <v>3985866.469563781</v>
       </c>
       <c r="I18">
-        <v>-1039.520485524427</v>
+        <v>1115433.607216871</v>
       </c>
       <c r="J18">
-        <v>1212.769218154955</v>
+        <v>4842447.793584155</v>
       </c>
       <c r="K18">
-        <v>3531.860965708561</v>
+        <v>3987409.032246341</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1075,28 +1072,28 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>60.24818684113987</v>
+        <v>1116437.127896209</v>
       </c>
       <c r="G19">
-        <v>34.89051981819748</v>
+        <v>4841292.291745413</v>
       </c>
       <c r="H19">
-        <v>1725.841754238467</v>
+        <v>3985897.877103704</v>
       </c>
       <c r="I19">
-        <v>-990.5507974117301</v>
+        <v>1115477.312099114</v>
       </c>
       <c r="J19">
-        <v>1164.468320940523</v>
+        <v>4842399.141966338</v>
       </c>
       <c r="K19">
-        <v>3603.147578411802</v>
+        <v>3987470.449602476</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1110,28 +1107,28 @@
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>57.45658383559935</v>
+        <v>1116433.526528883</v>
       </c>
       <c r="G20">
-        <v>43.73678228584763</v>
+        <v>4841308.804573493</v>
       </c>
       <c r="H20">
-        <v>1757.829492113141</v>
+        <v>3985926.305915559</v>
       </c>
       <c r="I20">
-        <v>-940.3752757805452</v>
+        <v>1115522.093173875</v>
       </c>
       <c r="J20">
-        <v>1116.167423726092</v>
+        <v>4842350.49034852</v>
       </c>
       <c r="K20">
-        <v>3656.851285508744</v>
+        <v>3987516.718313802</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1145,28 +1142,28 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>55.01937016479344</v>
+        <v>1116430.382349118</v>
       </c>
       <c r="G21">
-        <v>52.58304475349779</v>
+        <v>4841325.317401573</v>
       </c>
       <c r="H21">
-        <v>1787.046638232999</v>
+        <v>3985952.272389126</v>
       </c>
       <c r="I21">
-        <v>-888.9642280898261</v>
+        <v>1115567.976941403</v>
       </c>
       <c r="J21">
-        <v>1067.866526511661</v>
+        <v>4842301.838730703</v>
       </c>
       <c r="K21">
-        <v>3692.972086999386</v>
+        <v>3987547.838380318</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1180,28 +1177,28 @@
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>52.86754084576785</v>
+        <v>1116427.606335557</v>
       </c>
       <c r="G22">
-        <v>61.42930722114795</v>
+        <v>4841341.830229652</v>
       </c>
       <c r="H22">
-        <v>1813.935114673016</v>
+        <v>3985976.169278639</v>
       </c>
       <c r="I22">
-        <v>-836.2872306470193</v>
+        <v>1115614.990554495</v>
       </c>
       <c r="J22">
-        <v>1019.565629297229</v>
+        <v>4842253.187112886</v>
       </c>
       <c r="K22">
-        <v>3711.509982883729</v>
+        <v>3987563.809802025</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1215,28 +1212,28 @@
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>50.9495144018907</v>
+        <v>1116425.131944408</v>
       </c>
       <c r="G23">
-        <v>70.2755696887981</v>
+        <v>4841358.343057731</v>
       </c>
       <c r="H23">
-        <v>1838.838875869891</v>
+        <v>3985998.302270485</v>
       </c>
       <c r="I23">
-        <v>-782.3131106041324</v>
+        <v>1115663.161834558</v>
       </c>
       <c r="J23">
-        <v>971.2647320827975</v>
+        <v>4842204.535495069</v>
       </c>
       <c r="K23">
-        <v>3712.464973161772</v>
+        <v>3987564.632578922</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1250,28 +1247,28 @@
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>49.22586473007014</v>
+        <v>1116422.908313184</v>
       </c>
       <c r="G24">
-        <v>79.12183215644826</v>
+        <v>4841374.855885811</v>
       </c>
       <c r="H24">
-        <v>1862.03088394877</v>
+        <v>3986018.913957275</v>
       </c>
       <c r="I24">
-        <v>-727.0099275104697</v>
+        <v>1115712.519288075</v>
       </c>
       <c r="J24">
-        <v>922.963834868366</v>
+        <v>4842155.883877251</v>
       </c>
       <c r="K24">
-        <v>3695.837057833517</v>
+        <v>3987550.306711009</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1285,28 +1282,28 @@
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>47.66587484490605</v>
+        <v>1116420.895814776</v>
       </c>
       <c r="G25">
-        <v>87.96809462409843</v>
+        <v>4841391.36871389</v>
       </c>
       <c r="H25">
-        <v>1883.731394487098</v>
+        <v>3986038.200089157</v>
       </c>
       <c r="I25">
-        <v>-670.3449544111204</v>
+        <v>1115763.092123477</v>
       </c>
       <c r="J25">
-        <v>874.6629376539346</v>
+        <v>4842107.232259434</v>
       </c>
       <c r="K25">
-        <v>3661.626236898962</v>
+        <v>3987520.832198287</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1320,28 +1317,28 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>46.24521277082461</v>
+        <v>1116419.0630592</v>
       </c>
       <c r="G26">
-        <v>96.81435709174859</v>
+        <v>4841407.88154197</v>
       </c>
       <c r="H26">
-        <v>1904.120709361788</v>
+        <v>3986056.320907787</v>
       </c>
       <c r="I26">
-        <v>-612.2846584800194</v>
+        <v>1115814.910268425</v>
       </c>
       <c r="J26">
-        <v>826.3620404395031</v>
+        <v>4842058.580641617</v>
       </c>
       <c r="K26">
-        <v>3609.832510358107</v>
+        <v>3987476.209040756</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1355,28 +1352,28 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>44.94432232091041</v>
+        <v>1116417.384817576</v>
       </c>
       <c r="G27">
-        <v>105.6606195593987</v>
+        <v>4841424.394370049</v>
       </c>
       <c r="H27">
-        <v>1923.348291533685</v>
+        <v>3986073.409247017</v>
       </c>
       <c r="I27">
-        <v>-552.7946811761079</v>
+        <v>1115868.00438752</v>
       </c>
       <c r="J27">
-        <v>778.0611432250714</v>
+        <v>4842009.929023799</v>
       </c>
       <c r="K27">
-        <v>3540.455878210954</v>
+        <v>3987416.437238415</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1390,28 +1387,28 @@
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>43.74728287400295</v>
+        <v>1116415.840551165</v>
       </c>
       <c r="G28">
-        <v>114.5068820270489</v>
+        <v>4841440.907198129</v>
       </c>
       <c r="H28">
-        <v>1941.539420247085</v>
+        <v>3986089.576447637</v>
       </c>
       <c r="I28">
-        <v>-491.8398179108635</v>
+        <v>1115922.405900452</v>
       </c>
       <c r="J28">
-        <v>729.7602460106401</v>
+        <v>4841961.277405982</v>
       </c>
       <c r="K28">
-        <v>3453.496340457501</v>
+        <v>3987341.516791265</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1425,28 +1422,28 @@
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>42.64098486466953</v>
+        <v>1116414.413347692</v>
       </c>
       <c r="G29">
-        <v>123.3531444946991</v>
+        <v>4841457.420026209</v>
       </c>
       <c r="H29">
-        <v>1958.800142475381</v>
+        <v>3986104.916757935</v>
       </c>
       <c r="I29">
-        <v>-429.3839972151576</v>
+        <v>1115978.147000592</v>
       </c>
       <c r="J29">
-        <v>681.4593487962086</v>
+        <v>4841912.625788165</v>
       </c>
       <c r="K29">
-        <v>3348.953897097749</v>
+        <v>3987251.447699306</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1460,28 +1457,28 @@
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>41.61452269840098</v>
+        <v>1116413.089138161</v>
       </c>
       <c r="G30">
-        <v>132.1994069623492</v>
+        <v>4841473.932854287</v>
       </c>
       <c r="H30">
-        <v>1975.221018617603</v>
+        <v>3986119.510662642</v>
       </c>
       <c r="I30">
-        <v>-365.3902593931216</v>
+        <v>1116035.260674042</v>
       </c>
       <c r="J30">
-        <v>633.1584515817769</v>
+        <v>4841863.974170348</v>
       </c>
       <c r="K30">
-        <v>3226.828548131697</v>
+        <v>3987146.229962536</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1495,28 +1492,28 @@
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>40.65874047430571</v>
+        <v>1116411.856110805</v>
       </c>
       <c r="G31">
-        <v>141.0456694299994</v>
+        <v>4841490.445682367</v>
       </c>
       <c r="H31">
-        <v>1990.879998483713</v>
+        <v>3986133.427438945</v>
       </c>
       <c r="I31">
-        <v>-299.8207346503775</v>
+        <v>1116093.780719157</v>
       </c>
       <c r="J31">
-        <v>584.8575543673456</v>
+        <v>4841815.32255253</v>
       </c>
       <c r="K31">
-        <v>3087.120293559346</v>
+        <v>3987025.863580957</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1530,28 +1527,28 @@
         <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>39.76588707436316</v>
+        <v>1116410.704266128</v>
       </c>
       <c r="G32">
-        <v>149.8919318976495</v>
+        <v>4841506.958510447</v>
       </c>
       <c r="H32">
-        <v>2005.844659178088</v>
+        <v>3986146.727145384</v>
       </c>
       <c r="I32">
-        <v>-232.6366206836999</v>
+        <v>1116153.741766545</v>
       </c>
       <c r="J32">
-        <v>536.556657152914</v>
+        <v>4841766.670934713</v>
       </c>
       <c r="K32">
-        <v>2929.829133380696</v>
+        <v>3986890.348554569</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1565,28 +1562,28 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>38.92935082320142</v>
+        <v>1116409.625074597</v>
       </c>
       <c r="G33">
-        <v>158.7381943652996</v>
+        <v>4841523.471338526</v>
       </c>
       <c r="H33">
-        <v>2020.1739675796</v>
+        <v>3986159.462188235</v>
       </c>
       <c r="I33">
-        <v>-163.7981597188441</v>
+        <v>1116215.179299562</v>
       </c>
       <c r="J33">
-        <v>488.2557599384827</v>
+        <v>4841718.019316896</v>
       </c>
       <c r="K33">
-        <v>2754.955067595747</v>
+        <v>3986739.684883371</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1600,28 +1597,28 @@
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>38.14345290758492</v>
+        <v>1116408.611210136</v>
       </c>
       <c r="G34">
-        <v>167.5844568329498</v>
+        <v>4841539.984166606</v>
       </c>
       <c r="H34">
-        <v>2033.91968368558</v>
+        <v>3986171.678568728</v>
       </c>
       <c r="I34">
-        <v>-93.26461498295136</v>
+        <v>1116278.129675308</v>
       </c>
       <c r="J34">
-        <v>439.9548627240511</v>
+        <v>4841669.367699079</v>
       </c>
       <c r="K34">
-        <v>2562.498096204497</v>
+        <v>3986573.872567363</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1635,28 +1632,28 @@
         <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>37.40328477929227</v>
+        <v>1116407.656340369</v>
       </c>
       <c r="G35">
-        <v>176.4307193006</v>
+        <v>4841556.496994685</v>
       </c>
       <c r="H35">
-        <v>2047.127489208052</v>
+        <v>3986183.416886069</v>
       </c>
       <c r="I35">
-        <v>-20.99424659760893</v>
+        <v>1116342.630146144</v>
       </c>
       <c r="J35">
-        <v>391.6539655096195</v>
+        <v>4841620.716081261</v>
       </c>
       <c r="K35">
-        <v>2352.458219206949</v>
+        <v>3986392.911606546</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1670,28 +1667,28 @@
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>36.70457889107256</v>
+        <v>1116406.754959853</v>
       </c>
       <c r="G36">
-        <v>185.2769817682502</v>
+        <v>4841573.009822764</v>
       </c>
       <c r="H36">
-        <v>2059.837903545681</v>
+        <v>3986194.713151508</v>
       </c>
       <c r="I36">
-        <v>53.05571312170299</v>
+        <v>1116408.718881735</v>
       </c>
       <c r="J36">
-        <v>343.3530682951882</v>
+        <v>4841572.064463444</v>
       </c>
       <c r="K36">
-        <v>2124.835436603102</v>
+        <v>3986196.80200092</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1705,28 +1702,28 @@
         <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>36.04360498303678</v>
+        <v>1116405.902256287</v>
       </c>
       <c r="G37">
-        <v>194.1232442359003</v>
+        <v>4841589.522650844</v>
       </c>
       <c r="H37">
-        <v>2072.087033460439</v>
+        <v>3986205.599454599</v>
       </c>
       <c r="I37">
-        <v>128.9290849743891</v>
+        <v>1116476.434991639</v>
       </c>
       <c r="J37">
-        <v>295.0521710807566</v>
+        <v>4841523.412845627</v>
       </c>
       <c r="K37">
-        <v>1879.629748392955</v>
+        <v>3985985.543750484</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1740,28 +1737,28 @@
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>35.41708616005171</v>
+        <v>1116405.094002243</v>
       </c>
       <c r="G38">
-        <v>202.9695067035505</v>
+        <v>4841606.035478923</v>
       </c>
       <c r="H38">
-        <v>2083.907191422359</v>
+        <v>3986216.10451276</v>
       </c>
       <c r="I38">
-        <v>206.670768806726</v>
+        <v>1116545.818548451</v>
       </c>
       <c r="J38">
-        <v>246.7512738663252</v>
+        <v>4841474.76122781</v>
       </c>
       <c r="K38">
-        <v>1616.84115457651</v>
+        <v>3985759.136855239</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1775,28 +1772,28 @@
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>34.8221304479975</v>
+        <v>1116404.326466867</v>
       </c>
       <c r="G39">
-        <v>211.8157691712006</v>
+        <v>4841622.548307003</v>
       </c>
       <c r="H39">
-        <v>2095.327409299155</v>
+        <v>3986226.254127798</v>
       </c>
       <c r="I39">
-        <v>286.3267700823959</v>
+        <v>1116616.910611519</v>
       </c>
       <c r="J39">
-        <v>198.4503766518937</v>
+        <v>4841426.109609992</v>
       </c>
       <c r="K39">
-        <v>1336.469655153763</v>
+        <v>3985517.581315184</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1810,28 +1807,28 @@
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>34.25617456534781</v>
+        <v>1116403.596343343</v>
       </c>
       <c r="G40">
-        <v>220.6620316388508</v>
+        <v>4841639.061135083</v>
       </c>
       <c r="H40">
-        <v>2106.373867952107</v>
+        <v>3986236.071567717</v>
       </c>
       <c r="I40">
-        <v>367.9442271073023</v>
+        <v>1116689.753251236</v>
       </c>
       <c r="J40">
-        <v>150.1494794374621</v>
+        <v>4841377.457992175</v>
       </c>
       <c r="K40">
-        <v>1038.515250124718</v>
+        <v>3985260.877130319</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1845,28 +1842,28 @@
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>33.71693741529761</v>
+        <v>1116402.900688893</v>
       </c>
       <c r="G41">
-        <v>229.5082941065009</v>
+        <v>4841655.573963162</v>
       </c>
       <c r="H41">
-        <v>2117.070258735738</v>
+        <v>3986245.577887991</v>
       </c>
       <c r="I41">
-        <v>451.5714389247621</v>
+        <v>1116764.389573942</v>
       </c>
       <c r="J41">
-        <v>101.8485822230307</v>
+        <v>4841328.806374358</v>
       </c>
       <c r="K41">
-        <v>722.977939489375</v>
+        <v>3984989.024300645</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1880,28 +1877,28 @@
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>33.20238137350256</v>
+        <v>1116402.236874836</v>
       </c>
       <c r="G42">
-        <v>238.3545565741511</v>
+        <v>4841672.086791242</v>
       </c>
       <c r="H42">
-        <v>2127.438089457135</v>
+        <v>3986254.792203492</v>
       </c>
       <c r="I42">
-        <v>537.2578938976046</v>
+        <v>1116840.863747431</v>
       </c>
       <c r="J42">
-        <v>53.54768500859914</v>
+        <v>4841280.154756541</v>
       </c>
       <c r="K42">
-        <v>389.8577232477311</v>
+        <v>3984702.022826162</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1915,28 +1912,28 @@
         <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>32.71067987321078</v>
+        <v>1116401.602544771</v>
       </c>
       <c r="G43">
-        <v>247.2008190418013</v>
+        <v>4841688.599619322</v>
       </c>
       <c r="H43">
-        <v>2137.496944730167</v>
+        <v>3986263.731919866</v>
       </c>
       <c r="I43">
-        <v>625.0542989940594</v>
+        <v>1116919.221027087</v>
       </c>
       <c r="J43">
-        <v>5.24678779416756</v>
+        <v>4841231.503138723</v>
       </c>
       <c r="K43">
-        <v>39.15460139978815</v>
+        <v>3984399.872706869</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1950,28 +1947,28 @@
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>32.24019011218734</v>
+        <v>1116400.995579364</v>
       </c>
       <c r="G44">
-        <v>256.0470815094514</v>
+        <v>4841705.112447401</v>
       </c>
       <c r="H44">
-        <v>2147.264708646285</v>
+        <v>3986272.412931436</v>
       </c>
       <c r="I44">
-        <v>715.0126097948022</v>
+        <v>1116999.507782667</v>
       </c>
       <c r="J44">
-        <v>-43.05410942026379</v>
+        <v>4841182.851520906</v>
       </c>
       <c r="K44">
-        <v>-329.1314260544531</v>
+        <v>3984082.573942766</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1985,28 +1982,28 @@
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>31.78942995192992</v>
+        <v>1116400.414066552</v>
       </c>
       <c r="G45">
-        <v>264.8933439771016</v>
+        <v>4841721.625275481</v>
       </c>
       <c r="H45">
-        <v>2156.757756123286</v>
+        <v>3986280.849791264</v>
       </c>
       <c r="I45">
-        <v>807.1860612388853</v>
+        <v>1117081.77152574</v>
       </c>
       <c r="J45">
-        <v>-91.35500663469537</v>
+        <v>4841134.199903089</v>
       </c>
       <c r="K45">
-        <v>-715.0003591149947</v>
+        <v>3983750.126533854</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2020,28 +2017,28 @@
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>31.35705826898166</v>
+        <v>1116399.85627619</v>
       </c>
       <c r="G46">
-        <v>273.7396064447518</v>
+        <v>4841738.13810356</v>
       </c>
       <c r="H46">
-        <v>2165.991118074808</v>
+        <v>3986289.055857936</v>
       </c>
       <c r="I46">
-        <v>901.629199126759</v>
+        <v>1117166.060937806</v>
       </c>
       <c r="J46">
-        <v>-139.655903849127</v>
+        <v>4841085.548285271</v>
       </c>
       <c r="K46">
-        <v>-1118.452197781837</v>
+        <v>3983402.530480132</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2055,28 +2052,28 @@
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>30.9418581649273</v>
+        <v>1116399.320638392</v>
       </c>
       <c r="G47">
-        <v>282.5858689124018</v>
+        <v>4841754.65093164</v>
       </c>
       <c r="H47">
-        <v>2174.978624584355</v>
+        <v>3986297.043422815</v>
       </c>
       <c r="I47">
-        <v>998.3979123990279</v>
+        <v>1117252.425899099</v>
       </c>
       <c r="J47">
-        <v>-187.9568010635585</v>
+        <v>4841036.896667454</v>
       </c>
       <c r="K47">
-        <v>-1539.486942054977</v>
+        <v>3983039.785781602</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2090,28 +2087,28 @@
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>30.54272255630224</v>
+        <v>1116398.80572494</v>
       </c>
       <c r="G48">
-        <v>291.432131380052</v>
+        <v>4841771.163759719</v>
       </c>
       <c r="H48">
-        <v>2183.733029507814</v>
+        <v>3986304.823820774</v>
       </c>
       <c r="I48">
-        <v>1097.549466210042</v>
+        <v>1117340.917518109</v>
       </c>
       <c r="J48">
-        <v>-236.2576982779896</v>
+        <v>4840988.245049637</v>
       </c>
       <c r="K48">
-        <v>-1978.104591934414</v>
+        <v>3982661.892438261</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2125,28 +2122,28 @@
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>30.15864175582566</v>
+        <v>1116398.310233266</v>
       </c>
       <c r="G49">
-        <v>300.2783938477022</v>
+        <v>4841787.676587798</v>
       </c>
       <c r="H49">
-        <v>2192.266119322254</v>
+        <v>3986312.407526937</v>
       </c>
       <c r="I49">
-        <v>1199.142535815897</v>
+        <v>1117431.588161827</v>
       </c>
       <c r="J49">
-        <v>-284.5585954924213</v>
+        <v>4840939.59343182</v>
       </c>
       <c r="K49">
-        <v>-2434.305147420152</v>
+        <v>3982268.850450111</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2160,28 +2157,28 @@
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>29.78869272777045</v>
+        <v>1116397.832972588</v>
       </c>
       <c r="G50">
-        <v>309.1246563153524</v>
+        <v>4841804.189415878</v>
       </c>
       <c r="H50">
-        <v>2200.588808552317</v>
+        <v>3986319.804241491</v>
       </c>
       <c r="I50">
-        <v>1303.237241296884</v>
+        <v>1117524.491486731</v>
       </c>
       <c r="J50">
-        <v>-332.8594927068528</v>
+        <v>4840890.941814002</v>
       </c>
       <c r="K50">
-        <v>-2908.088608512191</v>
+        <v>3981860.659817151</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2195,28 +2192,28 @@
         <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>29.43202975717485</v>
+        <v>1116397.372851874</v>
       </c>
       <c r="G51">
-        <v>317.9709187830025</v>
+        <v>4841820.702243958</v>
       </c>
       <c r="H51">
-        <v>2208.711223712657</v>
+        <v>3986327.022964281</v>
       </c>
       <c r="I51">
-        <v>1409.895183134968</v>
+        <v>1117619.682470541</v>
       </c>
       <c r="J51">
-        <v>-381.1603899212844</v>
+        <v>4840842.290196185</v>
       </c>
       <c r="K51">
-        <v>-3399.454975210529</v>
+        <v>3981437.320539383</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2230,28 +2227,28 @@
         <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>29.08787631820093</v>
+        <v>1116396.928869349</v>
       </c>
       <c r="G52">
-        <v>326.8171812506527</v>
+        <v>4841837.215072037</v>
       </c>
       <c r="H52">
-        <v>2216.642777385963</v>
+        <v>3986334.072060655</v>
       </c>
       <c r="I52">
-        <v>1519.179478667309</v>
+        <v>1117717.217444753</v>
       </c>
       <c r="J52">
-        <v>-429.461287135716</v>
+        <v>4840793.638578368</v>
       </c>
       <c r="K52">
-        <v>-3908.404247515166</v>
+        <v>3980998.832616804</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2265,28 +2262,28 @@
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>28.75551796369589</v>
+        <v>1116396.500103326</v>
       </c>
       <c r="G53">
-        <v>335.6634437183028</v>
+        <v>4841853.727900117</v>
       </c>
       <c r="H53">
-        <v>2224.392233795705</v>
+        <v>3986340.959319739</v>
       </c>
       <c r="I53">
-        <v>1631.154799437423</v>
+        <v>1117817.154127975</v>
       </c>
       <c r="J53">
-        <v>-477.7621843501471</v>
+        <v>4840744.986960551</v>
       </c>
       <c r="K53">
-        <v>-4434.936425426098</v>
+        <v>3980545.196049416</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2300,28 +2297,28 @@
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>28.43429608779747</v>
+        <v>1116396.085704156</v>
       </c>
       <c r="G54">
-        <v>344.509706185953</v>
+        <v>4841870.240728197</v>
       </c>
       <c r="H54">
-        <v>2231.967767019224</v>
+        <v>3986347.692006169</v>
       </c>
       <c r="I54">
-        <v>1745.887409466096</v>
+        <v>1117919.551660081</v>
       </c>
       <c r="J54">
-        <v>-526.0630815645786</v>
+        <v>4840696.335342733</v>
       </c>
       <c r="K54">
-        <v>-4979.051508943335</v>
+        <v>3980076.410837219</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2329,7 +2326,7 @@
         <v>97</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
@@ -2341,22 +2338,22 @@
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>170.3210026874141</v>
+        <v>1116579.43941697</v>
       </c>
       <c r="G55">
-        <v>-99.97386577893104</v>
+        <v>4841126.271590863</v>
       </c>
       <c r="H55">
-        <v>1379.133131897425</v>
+        <v>3985223.297497876</v>
       </c>
       <c r="I55">
-        <v>-1767.715603015818</v>
+        <v>1114863.157788271</v>
       </c>
       <c r="J55">
-        <v>1868.87959127978</v>
+        <v>4843223.757454061</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984372.281792053</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2364,7 +2361,7 @@
         <v>97</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
@@ -2376,22 +2373,22 @@
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>170.3210026874141</v>
+        <v>1116579.43941697</v>
       </c>
       <c r="G56">
-        <v>-99.97386577893104</v>
+        <v>4841126.271590863</v>
       </c>
       <c r="H56">
-        <v>1379.133131897425</v>
+        <v>3985223.297497876</v>
       </c>
       <c r="I56">
-        <v>-1732.816190049985</v>
+        <v>1114892.771832558</v>
       </c>
       <c r="J56">
-        <v>1823.417611111635</v>
+        <v>4843175.105860976</v>
       </c>
       <c r="K56">
-        <v>348.8988709574923</v>
+        <v>3984676.07793352</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2399,7 +2396,7 @@
         <v>97</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
@@ -2411,22 +2408,22 @@
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>170.3210026874141</v>
+        <v>1116579.43941697</v>
       </c>
       <c r="G57">
-        <v>-99.97386577893104</v>
+        <v>4841126.271590863</v>
       </c>
       <c r="H57">
-        <v>1379.133131897425</v>
+        <v>3985223.297497876</v>
       </c>
       <c r="I57">
-        <v>-1697.057411146739</v>
+        <v>1114923.115095441</v>
       </c>
       <c r="J57">
-        <v>1777.955630943491</v>
+        <v>4843126.454267889</v>
       </c>
       <c r="K57">
-        <v>680.400044914034</v>
+        <v>3984964.725406823</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2434,7 +2431,7 @@
         <v>97</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
@@ -2446,22 +2443,22 @@
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>170.3210026874141</v>
+        <v>1116579.43941697</v>
       </c>
       <c r="G58">
-        <v>-99.97386577893104</v>
+        <v>4841126.271590863</v>
       </c>
       <c r="H58">
-        <v>1379.133131897425</v>
+        <v>3985223.297497876</v>
       </c>
       <c r="I58">
-        <v>-1660.418105210474</v>
+        <v>1114954.205533257</v>
       </c>
       <c r="J58">
-        <v>1732.493650775347</v>
+        <v>4843077.802674804</v>
       </c>
       <c r="K58">
-        <v>994.5035218696275</v>
+        <v>3985238.22421196</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2469,7 +2466,7 @@
         <v>97</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
@@ -2481,22 +2478,22 @@
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>170.3210026874141</v>
+        <v>1116579.43941697</v>
       </c>
       <c r="G59">
-        <v>-99.97386577893104</v>
+        <v>4841126.271590863</v>
       </c>
       <c r="H59">
-        <v>1379.133131897425</v>
+        <v>3985223.297497876</v>
       </c>
       <c r="I59">
-        <v>-1622.876590073072</v>
+        <v>1114986.061544502</v>
       </c>
       <c r="J59">
-        <v>1687.031670607203</v>
+        <v>4843029.151081719</v>
       </c>
       <c r="K59">
-        <v>1291.209301824271</v>
+        <v>3985496.574348933</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2504,7 +2501,7 @@
         <v>97</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
@@ -2516,22 +2513,22 @@
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>170.3210026874141</v>
+        <v>1116579.43941697</v>
       </c>
       <c r="G60">
-        <v>-99.97386577893104</v>
+        <v>4841126.271590863</v>
       </c>
       <c r="H60">
-        <v>1379.133131897425</v>
+        <v>3985223.297497876</v>
       </c>
       <c r="I60">
-        <v>-1584.410649662972</v>
+        <v>1115018.701980716</v>
       </c>
       <c r="J60">
-        <v>1641.569690439058</v>
+        <v>4842980.499488633</v>
       </c>
       <c r="K60">
-        <v>1570.517384777967</v>
+        <v>3985739.77581774</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2539,7 +2536,7 @@
         <v>97</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
@@ -2551,22 +2548,22 @@
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>170.3210026874141</v>
+        <v>1116579.43941697</v>
       </c>
       <c r="G61">
-        <v>-99.97386577893104</v>
+        <v>4841126.271590863</v>
       </c>
       <c r="H61">
-        <v>1379.133131897425</v>
+        <v>3985223.297497876</v>
       </c>
       <c r="I61">
-        <v>-1544.997520858289</v>
+        <v>1115052.146157644</v>
       </c>
       <c r="J61">
-        <v>1596.107710270914</v>
+        <v>4842931.847895547</v>
       </c>
       <c r="K61">
-        <v>1832.427770730712</v>
+        <v>3985967.828618382</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2574,7 +2571,7 @@
         <v>97</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
@@ -2586,22 +2583,22 @@
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>170.3210026874141</v>
+        <v>1116579.43941697</v>
       </c>
       <c r="G62">
-        <v>-99.97386577893104</v>
+        <v>4841126.271590863</v>
       </c>
       <c r="H62">
-        <v>1379.133131897425</v>
+        <v>3985223.297497876</v>
       </c>
       <c r="I62">
-        <v>-1504.613880016205</v>
+        <v>1115086.41386666</v>
       </c>
       <c r="J62">
-        <v>1550.645730102769</v>
+        <v>4842883.196302461</v>
       </c>
       <c r="K62">
-        <v>2076.940459682509</v>
+        <v>3986180.732750859</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2609,7 +2606,7 @@
         <v>97</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
@@ -2621,22 +2618,22 @@
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>170.3210026874141</v>
+        <v>1116579.43941697</v>
       </c>
       <c r="G63">
-        <v>-83.46536645964464</v>
+        <v>4841142.784415901</v>
       </c>
       <c r="H63">
-        <v>1379.133131897425</v>
+        <v>3985223.297497876</v>
       </c>
       <c r="I63">
-        <v>-1463.235829170653</v>
+        <v>1115121.525386486</v>
       </c>
       <c r="J63">
-        <v>1505.183749934625</v>
+        <v>4842834.544709376</v>
       </c>
       <c r="K63">
-        <v>2304.055451633356</v>
+        <v>3986378.48821517</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2644,7 +2641,7 @@
         <v>97</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
@@ -2656,22 +2653,22 @@
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>132.1889671304413</v>
+        <v>1116530.758812411</v>
       </c>
       <c r="G64">
-        <v>-66.95686714035826</v>
+        <v>4841159.297240938</v>
       </c>
       <c r="H64">
-        <v>1699.082738233805</v>
+        <v>3985422.551653117</v>
       </c>
       <c r="I64">
-        <v>-1420.838881890138</v>
+        <v>1115157.501495185</v>
       </c>
       <c r="J64">
-        <v>1459.721769766481</v>
+        <v>4842785.893116291</v>
       </c>
       <c r="K64">
-        <v>2513.772746583254</v>
+        <v>3986561.095011318</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2679,7 +2676,7 @@
         <v>97</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
@@ -2691,22 +2688,22 @@
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>109.7883091501185</v>
+        <v>1116502.161399316</v>
       </c>
       <c r="G65">
-        <v>-50.44836782107188</v>
+        <v>4841175.810065975</v>
       </c>
       <c r="H65">
-        <v>1889.661086611824</v>
+        <v>3985541.237618223</v>
       </c>
       <c r="I65">
-        <v>-1377.397948787316</v>
+        <v>1115194.363482463</v>
       </c>
       <c r="J65">
-        <v>1414.259789598337</v>
+        <v>4842737.241523204</v>
       </c>
       <c r="K65">
-        <v>2706.092344532203</v>
+        <v>3986728.553139299</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2714,7 +2711,7 @@
         <v>97</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
@@ -2726,22 +2723,22 @@
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>95.64737043752126</v>
+        <v>1116484.108614158</v>
       </c>
       <c r="G66">
-        <v>-33.93986850178549</v>
+        <v>4841192.322891013</v>
       </c>
       <c r="H66">
-        <v>2025.854551499446</v>
+        <v>3985626.054455806</v>
       </c>
       <c r="I66">
-        <v>-1332.887322671763</v>
+        <v>1115232.133162265</v>
       </c>
       <c r="J66">
-        <v>1368.797809430193</v>
+        <v>4842688.589930119</v>
       </c>
       <c r="K66">
-        <v>2881.014245480203</v>
+        <v>3986880.862599116</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2749,7 +2746,7 @@
         <v>97</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
@@ -2761,22 +2758,22 @@
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>85.78553718079614</v>
+        <v>1116471.518675069</v>
       </c>
       <c r="G67">
-        <v>-17.4313691824991</v>
+        <v>4841208.83571605</v>
       </c>
       <c r="H67">
-        <v>2131.908329641735</v>
+        <v>3985692.101281791</v>
       </c>
       <c r="I67">
-        <v>-1287.28066333714</v>
+        <v>1115270.832885686</v>
       </c>
       <c r="J67">
-        <v>1323.335829262048</v>
+        <v>4842639.938337034</v>
       </c>
       <c r="K67">
-        <v>3038.538449427254</v>
+        <v>3987018.023390767</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2784,7 +2781,7 @@
         <v>97</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
@@ -2796,22 +2793,22 @@
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>78.42831424306922</v>
+        <v>1116462.126203483</v>
       </c>
       <c r="G68">
-        <v>-0.9228698632127214</v>
+        <v>4841225.348541087</v>
       </c>
       <c r="H68">
-        <v>2218.774600221142</v>
+        <v>3985746.198755332</v>
       </c>
       <c r="I68">
-        <v>-1240.550981973759</v>
+        <v>1115310.485554192</v>
       </c>
       <c r="J68">
-        <v>1277.873849093904</v>
+        <v>4842591.286743948</v>
       </c>
       <c r="K68">
-        <v>3178.664956373354</v>
+        <v>3987140.035514254</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2819,7 +2816,7 @@
         <v>97</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
@@ -2831,22 +2828,22 @@
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>72.67599331149074</v>
+        <v>1116454.782602323</v>
       </c>
       <c r="G69">
-        <v>15.58562945607367</v>
+        <v>4841241.861366124</v>
       </c>
       <c r="H69">
-        <v>2292.343990471477</v>
+        <v>3985792.015366497</v>
       </c>
       <c r="I69">
-        <v>-1192.670625197323</v>
+        <v>1115351.11463318</v>
       </c>
       <c r="J69">
-        <v>1232.41186892576</v>
+        <v>4842542.635150862</v>
       </c>
       <c r="K69">
-        <v>3301.393766318507</v>
+        <v>3987246.898969575</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2854,7 +2851,7 @@
         <v>97</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
@@ -2866,22 +2863,22 @@
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>68.02194683762295</v>
+        <v>1116448.841094279</v>
       </c>
       <c r="G70">
-        <v>32.09412877536006</v>
+        <v>4841258.374191162</v>
       </c>
       <c r="H70">
-        <v>2356.152037530836</v>
+        <v>3985831.752932235</v>
       </c>
       <c r="I70">
-        <v>-1143.611258684387</v>
+        <v>1115392.744165861</v>
       </c>
       <c r="J70">
-        <v>1186.949888757615</v>
+        <v>4842493.983557777</v>
       </c>
       <c r="K70">
-        <v>3406.72487926271</v>
+        <v>3987338.613756731</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2889,7 +2886,7 @@
         <v>97</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
@@ -2901,22 +2898,22 @@
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>64.15742993465253</v>
+        <v>1116443.907525524</v>
       </c>
       <c r="G71">
-        <v>48.60262809464643</v>
+        <v>4841274.8870162</v>
       </c>
       <c r="H71">
-        <v>2412.488229042001</v>
+        <v>3985866.837270601</v>
       </c>
       <c r="I71">
-        <v>-1093.343850404861</v>
+        <v>1115435.398787485</v>
       </c>
       <c r="J71">
-        <v>1141.487908589471</v>
+        <v>4842445.331964691</v>
       </c>
       <c r="K71">
-        <v>3494.658295205964</v>
+        <v>3987415.179875723</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2924,7 +2921,7 @@
         <v>97</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
@@ -2936,22 +2933,22 @@
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>60.88254262815384</v>
+        <v>1116439.72669721</v>
       </c>
       <c r="G72">
-        <v>65.11112741393283</v>
+        <v>4841291.399841237</v>
       </c>
       <c r="H72">
-        <v>2462.920456913144</v>
+        <v>3985898.244813422</v>
       </c>
       <c r="I72">
-        <v>-1041.838653441619</v>
+        <v>1115479.103739926</v>
       </c>
       <c r="J72">
-        <v>1096.025928421327</v>
+        <v>4842396.680371606</v>
       </c>
       <c r="K72">
-        <v>3565.194014148269</v>
+        <v>3987476.597326549</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2959,7 +2956,7 @@
         <v>97</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
@@ -2971,22 +2968,22 @@
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>58.06154671281041</v>
+        <v>1116436.1253215</v>
       </c>
       <c r="G73">
-        <v>81.61962673321922</v>
+        <v>4841307.912666274</v>
       </c>
       <c r="H73">
-        <v>2508.569632909975</v>
+        <v>3985926.673627899</v>
       </c>
       <c r="I73">
-        <v>-989.0651883870688</v>
+        <v>1115523.884886612</v>
       </c>
       <c r="J73">
-        <v>1050.563948253182</v>
+        <v>4842348.028778519</v>
       </c>
       <c r="K73">
-        <v>3618.332036089624</v>
+        <v>3987522.86610921</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2994,7 +2991,7 @@
         <v>97</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
@@ -3006,22 +3003,22 @@
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>55.59867151296394</v>
+        <v>1116432.981134417</v>
       </c>
       <c r="G74">
-        <v>98.12812605250559</v>
+        <v>4841324.425491312</v>
       </c>
       <c r="H74">
-        <v>2550.264942862058</v>
+        <v>3985952.640103861</v>
       </c>
       <c r="I74">
-        <v>-934.9922253062485</v>
+        <v>1115569.768727838</v>
       </c>
       <c r="J74">
-        <v>1005.101968085038</v>
+        <v>4842299.377185434</v>
       </c>
       <c r="K74">
-        <v>3654.07236103003</v>
+        <v>3987553.986223706</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3029,7 +3026,7 @@
         <v>97</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
@@ -3041,22 +3038,22 @@
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>53.42418548918489</v>
+        <v>1116430.205114393</v>
       </c>
       <c r="G75">
-        <v>114.636625371792</v>
+        <v>4841340.938316349</v>
       </c>
       <c r="H75">
-        <v>2588.637046513338</v>
+        <v>3985976.536995579</v>
       </c>
       <c r="I75">
-        <v>-879.5877652557765</v>
+        <v>1115616.782416441</v>
       </c>
       <c r="J75">
-        <v>959.639987916894</v>
+        <v>4842250.725592349</v>
       </c>
       <c r="K75">
-        <v>3672.414988969487</v>
+        <v>3987569.957670037</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3064,7 +3061,7 @@
         <v>97</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
@@ -3076,22 +3073,22 @@
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>51.48596406122419</v>
+        <v>1116427.730717485</v>
       </c>
       <c r="G76">
-        <v>131.1451246910784</v>
+        <v>4841357.451141386</v>
       </c>
       <c r="H76">
-        <v>2624.176795598229</v>
+        <v>3985998.669989467</v>
       </c>
       <c r="I76">
-        <v>-822.8190213477302</v>
+        <v>1115664.953773875</v>
       </c>
       <c r="J76">
-        <v>914.1780077487496</v>
+        <v>4842202.073999263</v>
       </c>
       <c r="K76">
-        <v>3673.359919907995</v>
+        <v>3987570.780448203</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3099,7 +3096,7 @@
         <v>97</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s">
         <v>14</v>
@@ -3111,22 +3108,22 @@
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>49.74416600683094</v>
+        <v>1116425.507081084</v>
       </c>
       <c r="G77">
-        <v>147.6536240103648</v>
+        <v>4841373.963966424</v>
       </c>
       <c r="H77">
-        <v>2657.273729887878</v>
+        <v>3986019.281678159</v>
       </c>
       <c r="I77">
-        <v>-764.6523993472352</v>
+        <v>1115714.311306668</v>
       </c>
       <c r="J77">
-        <v>868.7160275806052</v>
+        <v>4842153.422406177</v>
       </c>
       <c r="K77">
-        <v>3656.907153845553</v>
+        <v>3987556.454558203</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3134,7 +3131,7 @@
         <v>97</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
         <v>14</v>
@@ -3146,22 +3143,22 @@
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>48.167750920126</v>
+        <v>1116423.494577992</v>
       </c>
       <c r="G78">
-        <v>164.1621233296512</v>
+        <v>4841390.476791461</v>
       </c>
       <c r="H78">
-        <v>2688.242172503808</v>
+        <v>3986038.56781182</v>
       </c>
       <c r="I78">
-        <v>-705.0534777922886</v>
+        <v>1115764.884223299</v>
       </c>
       <c r="J78">
-        <v>823.2540474124611</v>
+        <v>4842104.770813092</v>
       </c>
       <c r="K78">
-        <v>3623.056690782163</v>
+        <v>3987526.980000038</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3169,7 +3166,7 @@
         <v>97</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
@@ -3181,22 +3178,22 @@
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>46.73213063310346</v>
+        <v>1116421.661818149</v>
       </c>
       <c r="G79">
-        <v>180.6706226489376</v>
+        <v>4841406.989616498</v>
       </c>
       <c r="H79">
-        <v>2717.3394292969</v>
+        <v>3986056.688632121</v>
       </c>
       <c r="I79">
-        <v>-643.9869876240542</v>
+        <v>1115816.702451475</v>
       </c>
       <c r="J79">
-        <v>777.7920672443167</v>
+        <v>4842056.119220006</v>
       </c>
       <c r="K79">
-        <v>3571.808530717823</v>
+        <v>3987482.356773708</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3204,7 +3201,7 @@
         <v>97</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
@@ -3216,22 +3213,22 @@
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>45.41754305090294</v>
+        <v>1116419.983572619</v>
       </c>
       <c r="G80">
-        <v>197.1791219682239</v>
+        <v>4841423.502441536</v>
       </c>
       <c r="H80">
-        <v>2744.7787964068</v>
+        <v>3986073.776972927</v>
       </c>
       <c r="I80">
-        <v>-581.4167913155679</v>
+        <v>1115869.796655848</v>
       </c>
       <c r="J80">
-        <v>732.3300870761724</v>
+        <v>4842007.46762692</v>
       </c>
       <c r="K80">
-        <v>3503.162673652534</v>
+        <v>3987422.584879214</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3239,7 +3236,7 @@
         <v>97</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
@@ -3251,22 +3248,22 @@
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>44.20789992344934</v>
+        <v>1116418.439302614</v>
       </c>
       <c r="G81">
-        <v>213.6876212875103</v>
+        <v>4841440.015266573</v>
       </c>
       <c r="H81">
-        <v>2770.739057787973</v>
+        <v>3986089.944175039</v>
       </c>
       <c r="I81">
-        <v>-517.3058614865105</v>
+        <v>1115924.198256158</v>
       </c>
       <c r="J81">
-        <v>686.8681069080283</v>
+        <v>4841958.816033835</v>
       </c>
       <c r="K81">
-        <v>3417.119119586296</v>
+        <v>3987347.664316554</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3274,7 +3271,7 @@
         <v>97</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
@@ -3286,22 +3283,22 @@
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>43.08995365412375</v>
+        <v>1116417.012095819</v>
       </c>
       <c r="G82">
-        <v>230.1961206067967</v>
+        <v>4841456.52809161</v>
       </c>
       <c r="H82">
-        <v>2795.371551336563</v>
+        <v>3986105.284486752</v>
       </c>
       <c r="I82">
-        <v>-451.6162589913857</v>
+        <v>1115979.939445827</v>
       </c>
       <c r="J82">
-        <v>641.4061267398839</v>
+        <v>4841910.164440749</v>
       </c>
       <c r="K82">
-        <v>3313.677868519109</v>
+        <v>3987257.59508573</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3309,7 +3306,7 @@
         <v>97</v>
       </c>
       <c r="B83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
@@ -3321,22 +3318,22 @@
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>42.05268382293674</v>
+        <v>1116415.687883205</v>
       </c>
       <c r="G83">
-        <v>246.7046199260831</v>
+        <v>4841473.040916648</v>
       </c>
       <c r="H83">
-        <v>2818.80551431248</v>
+        <v>3986119.878392805</v>
       </c>
       <c r="I83">
-        <v>-384.3091104681449</v>
+        <v>1116037.053211011</v>
       </c>
       <c r="J83">
-        <v>595.9441465717395</v>
+        <v>4841861.512847664</v>
       </c>
       <c r="K83">
-        <v>3192.838920450972</v>
+        <v>3987152.37718674</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3344,7 +3341,7 @@
         <v>97</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C84" t="s">
         <v>14</v>
@@ -3356,22 +3353,22 @@
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>41.08683812611692</v>
+        <v>1116414.454852979</v>
       </c>
       <c r="G84">
-        <v>263.2131192453695</v>
+        <v>4841489.553741685</v>
       </c>
       <c r="H84">
-        <v>2841.152187610839</v>
+        <v>3986133.795170392</v>
       </c>
       <c r="I84">
-        <v>-315.3445853339607</v>
+        <v>1116095.573350119</v>
       </c>
       <c r="J84">
-        <v>550.4821664035953</v>
+        <v>4841812.861254578</v>
       </c>
       <c r="K84">
-        <v>3054.602275381887</v>
+        <v>3987032.010619585</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3379,7 +3376,7 @@
         <v>97</v>
       </c>
       <c r="B85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
@@ -3391,22 +3388,22 @@
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>40.18458383378399</v>
+        <v>1116413.303005621</v>
       </c>
       <c r="G85">
-        <v>279.7216185646559</v>
+        <v>4841506.066566722</v>
       </c>
       <c r="H85">
-        <v>2862.508009408767</v>
+        <v>3986147.094878058</v>
       </c>
       <c r="I85">
-        <v>-244.681872214547</v>
+        <v>1116155.534493814</v>
       </c>
       <c r="J85">
-        <v>505.020186235451</v>
+        <v>4841764.209661492</v>
       </c>
       <c r="K85">
-        <v>2898.967933311852</v>
+        <v>3986896.495384265</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3414,7 +3411,7 @@
         <v>97</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
@@ -3426,22 +3423,22 @@
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>39.33923965594771</v>
+        <v>1116412.223811577</v>
       </c>
       <c r="G86">
-        <v>296.2301178839422</v>
+        <v>4841522.57939176</v>
       </c>
       <c r="H86">
-        <v>2882.957130371814</v>
+        <v>3986159.829922084</v>
       </c>
       <c r="I86">
-        <v>-172.2791547930713</v>
+        <v>1116216.97212551</v>
       </c>
       <c r="J86">
-        <v>459.5582060673069</v>
+        <v>4841715.558068407</v>
       </c>
       <c r="K86">
-        <v>2725.935894240868</v>
+        <v>3986745.83148078</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3449,7 +3446,7 @@
         <v>97</v>
       </c>
       <c r="B87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
@@ -3461,22 +3458,22 @@
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>38.54506698690022</v>
+        <v>1116411.209944756</v>
       </c>
       <c r="G87">
-        <v>312.7386172032286</v>
+        <v>4841539.092216797</v>
       </c>
       <c r="H87">
-        <v>2902.573416343107</v>
+        <v>3986172.046303704</v>
       </c>
       <c r="I87">
-        <v>-98.0935870643704</v>
+        <v>1116279.922602365</v>
       </c>
       <c r="J87">
-        <v>414.0962258991624</v>
+        <v>4841666.906475321</v>
       </c>
       <c r="K87">
-        <v>2535.506158168934</v>
+        <v>3986580.018909129</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3484,7 +3481,7 @@
         <v>97</v>
       </c>
       <c r="B88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
@@ -3496,22 +3493,22 @@
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>37.79710559610187</v>
+        <v>1116410.255072766</v>
       </c>
       <c r="G88">
-        <v>329.2471165225151</v>
+        <v>4841555.605041835</v>
       </c>
       <c r="H88">
-        <v>2921.422058944514</v>
+        <v>3986183.784622128</v>
       </c>
       <c r="I88">
-        <v>-22.08126797982139</v>
+        <v>1116344.423176799</v>
       </c>
       <c r="J88">
-        <v>368.6342457310181</v>
+        <v>4841618.254882235</v>
       </c>
       <c r="K88">
-        <v>2327.678725096051</v>
+        <v>3986399.057669314</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3519,7 +3516,7 @@
         <v>97</v>
       </c>
       <c r="B89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
@@ -3531,22 +3528,22 @@
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>37.0910430031106</v>
+        <v>1116409.353690152</v>
       </c>
       <c r="G89">
-        <v>345.7556158418014</v>
+        <v>4841572.117866872</v>
       </c>
       <c r="H89">
-        <v>2939.560882745195</v>
+        <v>3986195.080888609</v>
       </c>
       <c r="I89">
-        <v>55.80278453213357</v>
+        <v>1116410.512018539</v>
       </c>
       <c r="J89">
-        <v>323.172265562874</v>
+        <v>4841569.60328915</v>
       </c>
       <c r="K89">
-        <v>2102.45359502222</v>
+        <v>3986202.947761334</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3554,7 +3551,7 @@
         <v>97</v>
       </c>
       <c r="B90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C90" t="s">
         <v>14</v>
@@ -3566,22 +3563,22 @@
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>36.4231096719683</v>
+        <v>1116408.500984602</v>
       </c>
       <c r="G90">
-        <v>362.2641151610878</v>
+        <v>4841588.630691909</v>
       </c>
       <c r="H90">
-        <v>2957.041415112866</v>
+        <v>3986205.967192705</v>
       </c>
       <c r="I90">
-        <v>135.6046601851808</v>
+        <v>1116478.228237207</v>
       </c>
       <c r="J90">
-        <v>277.7102853947296</v>
+        <v>4841520.951696064</v>
       </c>
       <c r="K90">
-        <v>1859.830767947439</v>
+        <v>3985991.689185188</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3589,7 +3586,7 @@
         <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
@@ -3601,22 +3598,22 @@
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>35.78999420496999</v>
+        <v>1116407.692728676</v>
       </c>
       <c r="G91">
-        <v>378.7726144803742</v>
+        <v>4841605.143516947</v>
       </c>
       <c r="H91">
-        <v>2973.909768643462</v>
+        <v>3986216.472251835</v>
       </c>
       <c r="I91">
-        <v>217.3715836098057</v>
+        <v>1116547.611905461</v>
       </c>
       <c r="J91">
-        <v>232.2483052265854</v>
+        <v>4841472.300102979</v>
       </c>
       <c r="K91">
-        <v>1599.81024387171</v>
+        <v>3985765.281940877</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3624,7 +3621,7 @@
         <v>97</v>
       </c>
       <c r="B92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C92" t="s">
         <v>14</v>
@@ -3636,22 +3633,22 @@
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>35.18877417827419</v>
+        <v>1116406.925191514</v>
       </c>
       <c r="G92">
-        <v>395.2811137996606</v>
+        <v>4841621.656341984</v>
       </c>
       <c r="H92">
-        <v>2990.207374239159</v>
+        <v>3986226.621867809</v>
       </c>
       <c r="I92">
-        <v>301.1519422995709</v>
+        <v>1116618.704082714</v>
       </c>
       <c r="J92">
-        <v>186.7863250584411</v>
+        <v>4841423.648509893</v>
       </c>
       <c r="K92">
-        <v>1322.39202279503</v>
+        <v>3985523.726028401</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3659,7 +3656,7 @@
         <v>97</v>
       </c>
       <c r="B93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
@@ -3671,22 +3668,22 @@
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>34.61685932145154</v>
+        <v>1116406.19506629</v>
       </c>
       <c r="G93">
-        <v>411.7896131189469</v>
+        <v>4841638.169167021</v>
       </c>
       <c r="H93">
-        <v>3005.971594177623</v>
+        <v>3986236.439308633</v>
       </c>
       <c r="I93">
-        <v>386.9953152455556</v>
+        <v>1116691.546839429</v>
       </c>
       <c r="J93">
-        <v>141.3243448902967</v>
+        <v>4841374.996916807</v>
       </c>
       <c r="K93">
-        <v>1027.576104717402</v>
+        <v>3985267.021447761</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3694,7 +3691,7 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
@@ -3706,22 +3703,22 @@
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>34.0719445199293</v>
+        <v>1116405.499410221</v>
       </c>
       <c r="G94">
-        <v>428.2981124382334</v>
+        <v>4841654.681992059</v>
       </c>
       <c r="H94">
-        <v>3021.236238002264</v>
+        <v>3986245.945629785</v>
       </c>
       <c r="I94">
-        <v>474.9525022758789</v>
+        <v>1116766.183282013</v>
       </c>
       <c r="J94">
-        <v>95.86236472215256</v>
+        <v>4841326.345323722</v>
       </c>
       <c r="K94">
-        <v>715.3624896388245</v>
+        <v>3984995.168198955</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3729,7 +3726,7 @@
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
@@ -3741,22 +3738,22 @@
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>33.55197069512749</v>
+        <v>1116404.835594619</v>
       </c>
       <c r="G95">
-        <v>444.8066117575197</v>
+        <v>4841671.194817096</v>
       </c>
       <c r="H95">
-        <v>3036.031999151761</v>
+        <v>3986255.159946135</v>
       </c>
       <c r="I95">
-        <v>565.0755541176975</v>
+        <v>1116842.657578332</v>
       </c>
       <c r="J95">
-        <v>50.40038455400821</v>
+        <v>4841277.693730636</v>
       </c>
       <c r="K95">
-        <v>385.7511775592973</v>
+        <v>3984708.166281984</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3764,7 +3761,7 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
@@ -3776,22 +3773,22 @@
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>33.05509204829325</v>
+        <v>1116404.201263077</v>
       </c>
       <c r="G96">
-        <v>461.3151110768061</v>
+        <v>4841687.707642134</v>
       </c>
       <c r="H96">
-        <v>3050.386826507303</v>
+        <v>3986264.099663334</v>
       </c>
       <c r="I96">
-        <v>657.4178031994327</v>
+        <v>1116921.014983842</v>
       </c>
       <c r="J96">
-        <v>4.938404385863842</v>
+        <v>4841229.04213755</v>
       </c>
       <c r="K96">
-        <v>38.74216847882105</v>
+        <v>3984406.015696848</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3799,7 +3796,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C97" t="s">
         <v>14</v>
@@ -3811,22 +3808,22 @@
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>32.57964848005529</v>
+        <v>1116403.594296257</v>
       </c>
       <c r="G97">
-        <v>477.8236103960925</v>
+        <v>4841704.220467171</v>
       </c>
       <c r="H97">
-        <v>3064.326242162431</v>
+        <v>3986272.780675705</v>
       </c>
       <c r="I97">
-        <v>752.0338952114935</v>
+        <v>1117001.301868376</v>
       </c>
       <c r="J97">
-        <v>-40.52357578228031</v>
+        <v>4841180.390544465</v>
       </c>
       <c r="K97">
-        <v>-325.6645376026033</v>
+        <v>3984088.716443547</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3834,7 +3831,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C98" t="s">
         <v>14</v>
@@ -3846,22 +3843,22 @@
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>32.12414224641032</v>
+        <v>1116403.012782092</v>
       </c>
       <c r="G98">
-        <v>494.3321097153789</v>
+        <v>4841720.733292208</v>
       </c>
       <c r="H98">
-        <v>3077.87361449372</v>
+        <v>3986281.217536311</v>
       </c>
       <c r="I98">
-        <v>848.9798214441432</v>
+        <v>1117083.565743579</v>
       </c>
       <c r="J98">
-        <v>-85.98555595042467</v>
+        <v>4841131.738951379</v>
       </c>
       <c r="K98">
-        <v>-707.468940684978</v>
+        <v>3983756.26852208</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3869,7 +3866,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
@@ -3881,22 +3878,22 @@
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>31.68721810315413</v>
+        <v>1116402.454990431</v>
       </c>
       <c r="G99">
-        <v>510.8406090346653</v>
+        <v>4841737.246117245</v>
       </c>
       <c r="H99">
-        <v>3091.050393871457</v>
+        <v>3986289.423603741</v>
       </c>
       <c r="I99">
-        <v>948.3129519216558</v>
+        <v>1117167.855291027</v>
       </c>
       <c r="J99">
-        <v>-131.447536118569</v>
+        <v>4841083.087358293</v>
       </c>
       <c r="K99">
-        <v>-1106.671040768303</v>
+        <v>3983408.671932449</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3904,7 +3901,7 @@
         <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
@@ -3916,22 +3913,22 @@
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>31.26764633909496</v>
+        <v>1116401.919351386</v>
       </c>
       <c r="G100">
-        <v>527.3491083539517</v>
+        <v>4841753.758942283</v>
       </c>
       <c r="H100">
-        <v>3103.876316980943</v>
+        <v>3986297.411169357</v>
       </c>
       <c r="I100">
-        <v>1050.092069352373</v>
+        <v>1117254.220391036</v>
       </c>
       <c r="J100">
-        <v>-176.9095162867134</v>
+        <v>4841034.435765208</v>
       </c>
       <c r="K100">
-        <v>-1523.270837852576</v>
+        <v>3983045.926674653</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3939,7 +3936,7 @@
         <v>97</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
         <v>14</v>
@@ -3951,22 +3948,22 @@
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>30.86430821423813</v>
+        <v>1116401.404436735</v>
       </c>
       <c r="G101">
-        <v>543.857607673238</v>
+        <v>4841770.27176732</v>
       </c>
       <c r="H101">
-        <v>3116.369584640701</v>
+        <v>3986305.191568033</v>
       </c>
       <c r="I101">
-        <v>1154.377403914749</v>
+        <v>1117342.712152179</v>
       </c>
       <c r="J101">
-        <v>-222.3714964548573</v>
+        <v>4840985.784172122</v>
       </c>
       <c r="K101">
-        <v>-1957.268331937795</v>
+        <v>3982668.032748691</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3974,7 +3971,7 @@
         <v>97</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
@@ -3986,22 +3983,22 @@
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>30.4761834102614</v>
+        <v>1116400.908943908</v>
       </c>
       <c r="G102">
-        <v>560.3661069925245</v>
+        <v>4841786.784592357</v>
       </c>
       <c r="H102">
-        <v>3128.547017138813</v>
+        <v>3986312.775274897</v>
       </c>
       <c r="I102">
-        <v>1261.230668899977</v>
+        <v>1117433.382941529</v>
       </c>
       <c r="J102">
-        <v>-267.8334766230017</v>
+        <v>4840937.132579037</v>
       </c>
       <c r="K102">
-        <v>-2408.663523023967</v>
+        <v>3982274.990154565</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4009,7 +4006,7 @@
         <v>97</v>
       </c>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
@@ -4021,22 +4018,22 @@
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>30.10233917275423</v>
+        <v>1116400.43168212</v>
       </c>
       <c r="G103">
-        <v>576.8746063118108</v>
+        <v>4841803.297417395</v>
       </c>
       <c r="H103">
-        <v>3140.424190414353</v>
+        <v>3986320.171990132</v>
       </c>
       <c r="I103">
-        <v>1370.715097232264</v>
+        <v>1117526.286415651</v>
       </c>
       <c r="J103">
-        <v>-313.2954567911461</v>
+        <v>4840888.480985951</v>
       </c>
       <c r="K103">
-        <v>-2877.456411111088</v>
+        <v>3981866.798892273</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4044,7 +4041,7 @@
         <v>97</v>
       </c>
       <c r="B104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
@@ -4056,22 +4053,22 @@
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>29.74192088218514</v>
+        <v>1116399.971560334</v>
       </c>
       <c r="G104">
-        <v>593.3831056310971</v>
+        <v>4841819.810242433</v>
       </c>
       <c r="H104">
-        <v>3152.015555850272</v>
+        <v>3986327.390713588</v>
       </c>
       <c r="I104">
-        <v>1482.895478888406</v>
+        <v>1117621.477552353</v>
       </c>
       <c r="J104">
-        <v>-358.7574369592904</v>
+        <v>4840839.829392865</v>
       </c>
       <c r="K104">
-        <v>-3363.646996199158</v>
+        <v>3981443.458961816</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4079,7 +4076,7 @@
         <v>97</v>
       </c>
       <c r="B105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
@@ -4091,22 +4088,22 @@
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>29.39414383664179</v>
+        <v>1116399.527576776</v>
       </c>
       <c r="G105">
-        <v>609.8916049503837</v>
+        <v>4841836.32306747</v>
       </c>
       <c r="H105">
-        <v>3163.334545988917</v>
+        <v>3986334.439810613</v>
       </c>
       <c r="I105">
-        <v>1597.838199238773</v>
+        <v>1117719.012683223</v>
       </c>
       <c r="J105">
-        <v>-404.2194171274348</v>
+        <v>4840791.17779978</v>
       </c>
       <c r="K105">
-        <v>-3867.235278288177</v>
+        <v>3981004.970363194</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4114,7 +4111,7 @@
         <v>97</v>
       </c>
       <c r="B106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
@@ -4126,22 +4123,22 @@
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>29.05828606652614</v>
+        <v>1116399.098809755</v>
       </c>
       <c r="G106">
-        <v>626.40010426967</v>
+        <v>4841852.835892507</v>
       </c>
       <c r="H106">
-        <v>3174.39366810984</v>
+        <v>3986341.327070332</v>
       </c>
       <c r="I106">
-        <v>1715.611278332402</v>
+        <v>1117818.94952696</v>
       </c>
       <c r="J106">
-        <v>-449.6813972955787</v>
+        <v>4840742.526206695</v>
       </c>
       <c r="K106">
-        <v>-4388.221257378142</v>
+        <v>3980551.333096407</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4149,7 +4146,7 @@
         <v>97</v>
       </c>
       <c r="B107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C107" t="s">
         <v>14</v>
@@ -4161,22 +4158,22 @@
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>28.73368203148609</v>
+        <v>1116398.68440962</v>
       </c>
       <c r="G107">
-        <v>642.9086035889563</v>
+        <v>4841869.348717545</v>
       </c>
       <c r="H107">
-        <v>3185.204587304725</v>
+        <v>3986348.059757383</v>
       </c>
       <c r="I107">
-        <v>1836.284411149467</v>
+        <v>1117921.347223533</v>
       </c>
       <c r="J107">
-        <v>-495.1433774637231</v>
+        <v>4840693.874613608</v>
       </c>
       <c r="K107">
-        <v>-4926.60493346906</v>
+        <v>3980082.547161455</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4184,7 +4181,7 @@
         <v>97</v>
       </c>
       <c r="B108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C108" t="s">
         <v>15</v>
@@ -4196,22 +4193,22 @@
         <v>152.142</v>
       </c>
       <c r="F108">
-        <v>73.81940533970847</v>
+        <v>1116578.410544122</v>
       </c>
       <c r="G108">
-        <v>-145.907871984443</v>
+        <v>4841121.159516642</v>
       </c>
       <c r="H108">
-        <v>721.5129232569076</v>
+        <v>3985223.519965522</v>
       </c>
       <c r="I108">
-        <v>-1955.912345646924</v>
+        <v>1114860.608337504</v>
       </c>
       <c r="J108">
-        <v>2415.802847146414</v>
+        <v>4843221.84486081</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>3984367.762338569</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4219,7 +4216,7 @@
         <v>97</v>
       </c>
       <c r="B109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C109" t="s">
         <v>15</v>
@@ -4231,22 +4228,22 @@
         <v>153.142</v>
       </c>
       <c r="F109">
-        <v>73.81940533970847</v>
+        <v>1116578.410544122</v>
       </c>
       <c r="G109">
-        <v>-145.907871984443</v>
+        <v>4841121.159516642</v>
       </c>
       <c r="H109">
-        <v>721.5129232569076</v>
+        <v>3985223.519965522</v>
       </c>
       <c r="I109">
-        <v>-1917.297427863063</v>
+        <v>1114890.22231407</v>
       </c>
       <c r="J109">
-        <v>2357.036524457905</v>
+        <v>4843173.193286937</v>
       </c>
       <c r="K109">
-        <v>346.4949975774708</v>
+        <v>3984671.558135442</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4254,7 +4251,7 @@
         <v>97</v>
       </c>
       <c r="B110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C110" t="s">
         <v>15</v>
@@ -4266,22 +4263,22 @@
         <v>154.142</v>
       </c>
       <c r="F110">
-        <v>73.81940533970847</v>
+        <v>1116578.410544122</v>
       </c>
       <c r="G110">
-        <v>-145.907871984443</v>
+        <v>4841121.159516642</v>
       </c>
       <c r="H110">
-        <v>721.5129232569076</v>
+        <v>3985223.519965522</v>
       </c>
       <c r="I110">
-        <v>-1877.731653253848</v>
+        <v>1114920.565507564</v>
       </c>
       <c r="J110">
-        <v>2298.270201769396</v>
+        <v>4843124.541713063</v>
       </c>
       <c r="K110">
-        <v>675.712166299679</v>
+        <v>3984960.205281334</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4289,7 +4286,7 @@
         <v>97</v>
       </c>
       <c r="B111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C111" t="s">
         <v>15</v>
@@ -4301,22 +4298,22 @@
         <v>155.142</v>
       </c>
       <c r="F111">
-        <v>73.81940533970847</v>
+        <v>1116578.410544122</v>
       </c>
       <c r="G111">
-        <v>-145.907871984443</v>
+        <v>4841121.159516642</v>
       </c>
       <c r="H111">
-        <v>721.5129232569076</v>
+        <v>3985223.519965522</v>
       </c>
       <c r="I111">
-        <v>-1837.191607844725</v>
+        <v>1114951.655874284</v>
       </c>
       <c r="J111">
-        <v>2239.503879080887</v>
+        <v>4843075.89013919</v>
       </c>
       <c r="K111">
-        <v>987.6515061666267</v>
+        <v>3985233.703776242</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4324,7 +4321,7 @@
         <v>97</v>
       </c>
       <c r="B112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C112" t="s">
         <v>15</v>
@@ -4336,22 +4333,22 @@
         <v>156.142</v>
       </c>
       <c r="F112">
-        <v>73.81940533970847</v>
+        <v>1116578.410544122</v>
       </c>
       <c r="G112">
-        <v>-145.907871984443</v>
+        <v>4841121.159516642</v>
       </c>
       <c r="H112">
-        <v>721.5129232569076</v>
+        <v>3985223.519965522</v>
       </c>
       <c r="I112">
-        <v>-1795.653301113561</v>
+        <v>1114983.51181268</v>
       </c>
       <c r="J112">
-        <v>2180.737556392378</v>
+        <v>4843027.238565317</v>
       </c>
       <c r="K112">
-        <v>1282.313017178312</v>
+        <v>3985492.05362017</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4359,7 +4356,7 @@
         <v>97</v>
       </c>
       <c r="B113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C113" t="s">
         <v>15</v>
@@ -4371,22 +4368,22 @@
         <v>157.142</v>
       </c>
       <c r="F113">
-        <v>73.81940533970847</v>
+        <v>1116578.410544122</v>
       </c>
       <c r="G113">
-        <v>-145.907871984443</v>
+        <v>4841121.159516642</v>
       </c>
       <c r="H113">
-        <v>721.5129232569076</v>
+        <v>3985223.519965522</v>
       </c>
       <c r="I113">
-        <v>-1753.092151793683</v>
+        <v>1115016.152174253</v>
       </c>
       <c r="J113">
-        <v>2121.971233703868</v>
+        <v>4842978.586991444</v>
       </c>
       <c r="K113">
-        <v>1559.696699334738</v>
+        <v>3985735.254813115</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4394,7 +4391,7 @@
         <v>97</v>
       </c>
       <c r="B114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C114" t="s">
         <v>15</v>
@@ -4406,22 +4403,22 @@
         <v>158.142</v>
       </c>
       <c r="F114">
-        <v>73.81940533970847</v>
+        <v>1116578.410544122</v>
       </c>
       <c r="G114">
-        <v>-145.907871984443</v>
+        <v>4841121.159516642</v>
       </c>
       <c r="H114">
-        <v>721.5129232569076</v>
+        <v>3985223.519965522</v>
       </c>
       <c r="I114">
-        <v>-1709.482973327343</v>
+        <v>1115049.596274701</v>
       </c>
       <c r="J114">
-        <v>2063.204911015359</v>
+        <v>4842929.935417571</v>
       </c>
       <c r="K114">
-        <v>1819.802552635902</v>
+        <v>3985963.307355077</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4429,7 +4426,7 @@
         <v>97</v>
       </c>
       <c r="B115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C115" t="s">
         <v>15</v>
@@ -4441,22 +4438,22 @@
         <v>159.142</v>
       </c>
       <c r="F115">
-        <v>73.81940533970847</v>
+        <v>1116578.410544122</v>
       </c>
       <c r="G115">
-        <v>-145.907871984443</v>
+        <v>4841121.159516642</v>
       </c>
       <c r="H115">
-        <v>721.5129232569076</v>
+        <v>3985223.519965522</v>
       </c>
       <c r="I115">
-        <v>-1664.799958960978</v>
+        <v>1115083.863905355</v>
       </c>
       <c r="J115">
-        <v>2004.43858832685</v>
+        <v>4842881.283843698</v>
       </c>
       <c r="K115">
-        <v>2062.630577081804</v>
+        <v>3986176.211246059</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4464,7 +4461,7 @@
         <v>97</v>
       </c>
       <c r="B116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C116" t="s">
         <v>15</v>
@@ -4476,22 +4473,22 @@
         <v>160.142</v>
       </c>
       <c r="F116">
-        <v>73.81940533970847</v>
+        <v>1116578.410544122</v>
       </c>
       <c r="G116">
-        <v>-121.8143752834149</v>
+        <v>4841137.672324243</v>
       </c>
       <c r="H116">
-        <v>721.5129232569076</v>
+        <v>3985223.519965522</v>
       </c>
       <c r="I116">
-        <v>-1619.016666473461</v>
+        <v>1115118.975344888</v>
       </c>
       <c r="J116">
-        <v>1945.672265638341</v>
+        <v>4842832.632269825</v>
       </c>
       <c r="K116">
-        <v>2288.180772672445</v>
+        <v>3986373.966486057</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4499,7 +4496,7 @@
         <v>97</v>
       </c>
       <c r="B117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C117" t="s">
         <v>15</v>
@@ -4511,22 +4508,22 @@
         <v>161.142</v>
       </c>
       <c r="F117">
-        <v>57.29247005402069</v>
+        <v>1116529.72998442</v>
       </c>
       <c r="G117">
-        <v>-97.72087858238677</v>
+        <v>4841154.185131842</v>
       </c>
       <c r="H117">
-        <v>888.8990663517776</v>
+        <v>3985422.774131885</v>
       </c>
       <c r="I117">
-        <v>-1572.106002528295</v>
+        <v>1115154.951371317</v>
       </c>
       <c r="J117">
-        <v>1886.905942949832</v>
+        <v>4842783.980695953</v>
       </c>
       <c r="K117">
-        <v>2496.453139407823</v>
+        <v>3986556.573075074</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4534,7 +4531,7 @@
         <v>97</v>
       </c>
       <c r="B118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C118" t="s">
         <v>15</v>
@@ -4546,22 +4543,22 @@
         <v>162.142</v>
       </c>
       <c r="F118">
-        <v>47.58372465425079</v>
+        <v>1116501.132597676</v>
       </c>
       <c r="G118">
-        <v>-73.62738188135867</v>
+        <v>4841170.697939443</v>
       </c>
       <c r="H118">
-        <v>988.6028136314305</v>
+        <v>3985541.460103616</v>
       </c>
       <c r="I118">
-        <v>-1524.040206640499</v>
+        <v>1115191.8132743</v>
       </c>
       <c r="J118">
-        <v>1828.139620261322</v>
+        <v>4842735.329122079</v>
       </c>
       <c r="K118">
-        <v>2687.447677287942</v>
+        <v>3986724.031013109</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4569,7 +4566,7 @@
         <v>97</v>
       </c>
       <c r="B119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C119" t="s">
         <v>15</v>
@@ -4581,22 +4578,22 @@
         <v>163.142</v>
       </c>
       <c r="F119">
-        <v>41.45485228831606</v>
+        <v>1116483.079829152</v>
       </c>
       <c r="G119">
-        <v>-49.53388518033054</v>
+        <v>4841187.210747044</v>
       </c>
       <c r="H119">
-        <v>1059.854343093536</v>
+        <v>3985626.276945935</v>
       </c>
       <c r="I119">
-        <v>-1474.790834748686</v>
+        <v>1115229.582867732</v>
       </c>
       <c r="J119">
-        <v>1769.373297572813</v>
+        <v>4842686.677548205</v>
       </c>
       <c r="K119">
-        <v>2861.164386312799</v>
+        <v>3986876.340300162</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4604,7 +4601,7 @@
         <v>97</v>
       </c>
       <c r="B120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C120" t="s">
         <v>15</v>
@@ -4616,22 +4613,22 @@
         <v>164.142</v>
       </c>
       <c r="F120">
-        <v>37.18060157886668</v>
+        <v>1116470.489901665</v>
       </c>
       <c r="G120">
-        <v>-25.44038847930242</v>
+        <v>4841203.723554644</v>
       </c>
       <c r="H120">
-        <v>1115.337870912643</v>
+        <v>3985692.323775606</v>
       </c>
       <c r="I120">
-        <v>-1424.32874238263</v>
+        <v>1115268.282502654</v>
       </c>
       <c r="J120">
-        <v>1710.606974884304</v>
+        <v>4842638.025974333</v>
       </c>
       <c r="K120">
-        <v>3017.603266482395</v>
+        <v>3987013.500936233</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4639,7 +4636,7 @@
         <v>97</v>
       </c>
       <c r="B121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C121" t="s">
         <v>15</v>
@@ -4651,22 +4648,22 @@
         <v>165.142</v>
       </c>
       <c r="F121">
-        <v>33.99188255041302</v>
+        <v>1116461.097438733</v>
       </c>
       <c r="G121">
-        <v>-1.346891778274316</v>
+        <v>4841220.236362244</v>
       </c>
       <c r="H121">
-        <v>1160.783183891198</v>
+        <v>3985746.421252167</v>
       </c>
       <c r="I121">
-        <v>-1372.624067416333</v>
+        <v>1115307.935080483</v>
       </c>
       <c r="J121">
-        <v>1651.840652195795</v>
+        <v>4842589.37440046</v>
       </c>
       <c r="K121">
-        <v>3156.764317796728</v>
+        <v>3987135.512921321</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4674,7 +4671,7 @@
         <v>97</v>
       </c>
       <c r="B122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C122" t="s">
         <v>15</v>
@@ -4686,22 +4683,22 @@
         <v>166.142</v>
       </c>
       <c r="F122">
-        <v>31.49874956157312</v>
+        <v>1116453.75384434</v>
       </c>
       <c r="G122">
-        <v>22.74660492275381</v>
+        <v>4841236.749169844</v>
       </c>
       <c r="H122">
-        <v>1199.272046636971</v>
+        <v>3985792.23786589</v>
       </c>
       <c r="I122">
-        <v>-1319.64621239642</v>
+        <v>1115348.564066562</v>
       </c>
       <c r="J122">
-        <v>1593.074329507285</v>
+        <v>4842540.722826586</v>
       </c>
       <c r="K122">
-        <v>3278.647540255801</v>
+        <v>3987242.376255428</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4709,7 +4706,7 @@
         <v>97</v>
       </c>
       <c r="B123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C123" t="s">
         <v>15</v>
@@ -4721,22 +4718,22 @@
         <v>167.142</v>
       </c>
       <c r="F123">
-        <v>29.48162344263632</v>
+        <v>1116447.812341771</v>
       </c>
       <c r="G123">
-        <v>46.84010162378193</v>
+        <v>4841253.261977445</v>
       </c>
       <c r="H123">
-        <v>1232.654125202346</v>
+        <v>3985831.975433846</v>
       </c>
       <c r="I123">
-        <v>-1265.363826435375</v>
+        <v>1115390.193504045</v>
       </c>
       <c r="J123">
-        <v>1534.308006818776</v>
+        <v>4842492.071252714</v>
       </c>
       <c r="K123">
-        <v>3383.252933859613</v>
+        <v>3987334.090938552</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4744,7 +4741,7 @@
         <v>97</v>
       </c>
       <c r="B124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C124" t="s">
         <v>15</v>
@@ -4756,22 +4753,22 @@
         <v>168.142</v>
       </c>
       <c r="F124">
-        <v>27.80669002161784</v>
+        <v>1116442.878777562</v>
       </c>
       <c r="G124">
-        <v>70.93359832481003</v>
+        <v>4841269.774785046</v>
       </c>
       <c r="H124">
-        <v>1262.127197295436</v>
+        <v>3985867.059774171</v>
       </c>
       <c r="I124">
-        <v>-1209.744786658918</v>
+        <v>1115432.848028127</v>
       </c>
       <c r="J124">
-        <v>1475.541684130267</v>
+        <v>4842443.419678841</v>
       </c>
       <c r="K124">
-        <v>3470.580498608163</v>
+        <v>3987410.656970695</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4779,7 +4776,7 @@
         <v>97</v>
       </c>
       <c r="B125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C125" t="s">
         <v>15</v>
@@ -4791,22 +4788,22 @@
         <v>169.142</v>
       </c>
       <c r="F125">
-        <v>26.38730997038616</v>
+        <v>1116438.6979531</v>
       </c>
       <c r="G125">
-        <v>95.02709502583818</v>
+        <v>4841286.287592646</v>
       </c>
       <c r="H125">
-        <v>1288.511527652002</v>
+        <v>3985898.467318744</v>
       </c>
       <c r="I125">
-        <v>-1152.756179196544</v>
+        <v>1115476.552880623</v>
       </c>
       <c r="J125">
-        <v>1416.775361441757</v>
+        <v>4842394.768104968</v>
       </c>
       <c r="K125">
-        <v>3540.630234501452</v>
+        <v>3987472.074351856</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4814,7 +4811,7 @@
         <v>97</v>
       </c>
       <c r="B126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C126" t="s">
         <v>15</v>
@@ -4826,22 +4823,22 @@
         <v>170.142</v>
       </c>
       <c r="F126">
-        <v>25.16465253148777</v>
+        <v>1116435.096580709</v>
       </c>
       <c r="G126">
-        <v>119.1205917268663</v>
+        <v>4841302.800400246</v>
       </c>
       <c r="H126">
-        <v>1312.393537050491</v>
+        <v>3985926.896134809</v>
       </c>
       <c r="I126">
-        <v>-1094.364279703966</v>
+        <v>1115521.333924905</v>
       </c>
       <c r="J126">
-        <v>1358.009038753248</v>
+        <v>4842346.116531095</v>
       </c>
       <c r="K126">
-        <v>3593.40214153948</v>
+        <v>3987518.343082034</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4849,7 +4846,7 @@
         <v>97</v>
       </c>
       <c r="B127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C127" t="s">
         <v>15</v>
@@ -4861,22 +4858,22 @@
         <v>171.142</v>
       </c>
       <c r="F127">
-        <v>24.09720941049905</v>
+        <v>1116431.952396523</v>
       </c>
       <c r="G127">
-        <v>143.2140884278944</v>
+        <v>4841319.313207847</v>
       </c>
       <c r="H127">
-        <v>1334.207025736853</v>
+        <v>3985952.86261222</v>
       </c>
       <c r="I127">
-        <v>-1034.534533405947</v>
+        <v>1115567.217661204</v>
       </c>
       <c r="J127">
-        <v>1299.242716064739</v>
+        <v>4842297.464957221</v>
       </c>
       <c r="K127">
-        <v>3628.896219722245</v>
+        <v>3987549.463161231</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4884,7 +4881,7 @@
         <v>97</v>
       </c>
       <c r="B128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C128" t="s">
         <v>15</v>
@@ -4896,22 +4893,22 @@
         <v>172.142</v>
       </c>
       <c r="F128">
-        <v>23.15475802363472</v>
+        <v>1116429.176379057</v>
       </c>
       <c r="G128">
-        <v>167.3075851289225</v>
+        <v>4841335.826015446</v>
       </c>
       <c r="H128">
-        <v>1354.281932239071</v>
+        <v>3985976.759505272</v>
       </c>
       <c r="I128">
-        <v>-973.2315346476958</v>
+        <v>1115614.231242298</v>
       </c>
       <c r="J128">
-        <v>1240.47639337623</v>
+        <v>4842248.813383348</v>
       </c>
       <c r="K128">
-        <v>3647.11246904975</v>
+        <v>3987565.434589446</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4919,7 +4916,7 @@
         <v>97</v>
       </c>
       <c r="B129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C129" t="s">
         <v>15</v>
@@ -4931,22 +4928,22 @@
         <v>173.142</v>
       </c>
       <c r="F129">
-        <v>22.31470687920054</v>
+        <v>1116426.701984429</v>
       </c>
       <c r="G129">
-        <v>191.4010818299506</v>
+        <v>4841352.338823047</v>
       </c>
       <c r="H129">
-        <v>1372.875052555728</v>
+        <v>3985998.892500395</v>
       </c>
       <c r="I129">
-        <v>-910.4190059427473</v>
+        <v>1115662.402489574</v>
       </c>
       <c r="J129">
-        <v>1181.71007068772</v>
+        <v>4842200.161809476</v>
       </c>
       <c r="K129">
-        <v>3648.050889521994</v>
+        <v>3987566.257366678</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4954,7 +4951,7 @@
         <v>97</v>
       </c>
       <c r="B130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C130" t="s">
         <v>15</v>
@@ -4966,22 +4963,22 @@
         <v>174.142</v>
       </c>
       <c r="F130">
-        <v>21.55978825748982</v>
+        <v>1116424.478350077</v>
       </c>
       <c r="G130">
-        <v>215.4945785309788</v>
+        <v>4841368.851630648</v>
       </c>
       <c r="H130">
-        <v>1390.190179904827</v>
+        <v>3986019.504190238</v>
       </c>
       <c r="I130">
-        <v>-846.0597765049066</v>
+        <v>1115711.759909497</v>
       </c>
       <c r="J130">
-        <v>1122.943747999211</v>
+        <v>4842151.510235602</v>
       </c>
       <c r="K130">
-        <v>3631.711481138976</v>
+        <v>3987551.931492928</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4989,7 +4986,7 @@
         <v>97</v>
       </c>
       <c r="B131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C131" t="s">
         <v>15</v>
@@ -5001,22 +4998,22 @@
         <v>175.142</v>
       </c>
       <c r="F131">
-        <v>20.87654883056679</v>
+        <v>1116422.46584884</v>
       </c>
       <c r="G131">
-        <v>239.5880752320069</v>
+        <v>4841385.364438248</v>
       </c>
       <c r="H131">
-        <v>1406.391756854684</v>
+        <v>3986038.790324976</v>
       </c>
       <c r="I131">
-        <v>-780.1157602515639</v>
+        <v>1115762.332710478</v>
       </c>
       <c r="J131">
-        <v>1064.177425310702</v>
+        <v>4842102.85866173</v>
       </c>
       <c r="K131">
-        <v>3598.094243900697</v>
+        <v>3987522.456968197</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5024,7 +5021,7 @@
         <v>97</v>
       </c>
       <c r="B132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C132" t="s">
         <v>15</v>
@@ -5036,22 +5033,22 @@
         <v>176.142</v>
       </c>
       <c r="F132">
-        <v>20.25433175686789</v>
+        <v>1116420.633090686</v>
       </c>
       <c r="G132">
-        <v>263.681571933035</v>
+        <v>4841401.877245848</v>
       </c>
       <c r="H132">
-        <v>1421.61439658538</v>
+        <v>3986056.911146289</v>
       </c>
       <c r="I132">
-        <v>-712.5479332653654</v>
+        <v>1115814.150820157</v>
       </c>
       <c r="J132">
-        <v>1005.411102622193</v>
+        <v>4842054.207087857</v>
       </c>
       <c r="K132">
-        <v>3547.199177807157</v>
+        <v>3987477.833792483</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5059,7 +5056,7 @@
         <v>97</v>
       </c>
       <c r="B133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C133" t="s">
         <v>15</v>
@@ -5071,22 +5068,22 @@
         <v>177.142</v>
       </c>
       <c r="F133">
-        <v>19.68457187961361</v>
+        <v>1116418.954846702</v>
       </c>
       <c r="G133">
-        <v>287.7750686340631</v>
+        <v>4841418.390053448</v>
       </c>
       <c r="H133">
-        <v>1435.96968797668</v>
+        <v>3986073.999488049</v>
       </c>
       <c r="I133">
-        <v>-643.3163107008929</v>
+        <v>1115867.244903115</v>
       </c>
       <c r="J133">
-        <v>946.6447799336834</v>
+        <v>4842005.555513983</v>
       </c>
       <c r="K133">
-        <v>3479.026282858355</v>
+        <v>3987418.061965787</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5094,7 +5091,7 @@
         <v>97</v>
       </c>
       <c r="B134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C134" t="s">
         <v>15</v>
@@ -5106,22 +5103,22 @@
         <v>178.142</v>
       </c>
       <c r="F134">
-        <v>19.16029633559411</v>
+        <v>1116417.410578119</v>
       </c>
       <c r="G134">
-        <v>311.8685653350912</v>
+        <v>4841434.902861048</v>
       </c>
       <c r="H134">
-        <v>1449.551164372562</v>
+        <v>3986090.166691063</v>
       </c>
       <c r="I134">
-        <v>-572.3799231226956</v>
+        <v>1115921.646379021</v>
       </c>
       <c r="J134">
-        <v>887.8784572451742</v>
+        <v>4841956.90394011</v>
       </c>
       <c r="K134">
-        <v>3393.575559054291</v>
+        <v>3987343.141488109</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5129,7 +5126,7 @@
         <v>97</v>
       </c>
       <c r="B135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C135" t="s">
         <v>15</v>
@@ -5141,22 +5138,22 @@
         <v>179.142</v>
       </c>
       <c r="F135">
-        <v>18.67576343888014</v>
+        <v>1116415.983372639</v>
       </c>
       <c r="G135">
-        <v>335.9620620361194</v>
+        <v>4841451.41566865</v>
       </c>
       <c r="H135">
-        <v>1462.438000325011</v>
+        <v>3986105.507003632</v>
       </c>
       <c r="I135">
-        <v>-499.6967922606642</v>
+        <v>1115977.387441222</v>
       </c>
       <c r="J135">
-        <v>829.1121345566648</v>
+        <v>4841908.252366237</v>
       </c>
       <c r="K135">
-        <v>3290.847006394967</v>
+        <v>3987253.07235945</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5164,7 +5161,7 @@
         <v>97</v>
       </c>
       <c r="B136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C136" t="s">
         <v>15</v>
@@ -5176,22 +5173,22 @@
         <v>180.142</v>
       </c>
       <c r="F136">
-        <v>18.22619679174401</v>
+        <v>1116414.659161246</v>
       </c>
       <c r="G136">
-        <v>360.0555587371474</v>
+        <v>4841467.928476249</v>
       </c>
       <c r="H136">
-        <v>1474.697808126877</v>
+        <v>3986120.1009105</v>
       </c>
       <c r="I136">
-        <v>-425.2239061684097</v>
+        <v>1116034.501075799</v>
       </c>
       <c r="J136">
-        <v>770.3458118681556</v>
+        <v>4841859.600792364</v>
       </c>
       <c r="K136">
-        <v>3170.84062488038</v>
+        <v>3987147.854579808</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5199,7 +5196,7 @@
         <v>97</v>
       </c>
       <c r="B137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C137" t="s">
         <v>15</v>
@@ -5211,22 +5208,22 @@
         <v>181.142</v>
       </c>
       <c r="F137">
-        <v>17.8075863217246</v>
+        <v>1116413.426132156</v>
       </c>
       <c r="G137">
-        <v>384.1490554381756</v>
+        <v>4841484.44128385</v>
       </c>
       <c r="H137">
-        <v>1486.388785019284</v>
+        <v>3986134.017688864</v>
       </c>
       <c r="I137">
-        <v>-348.9171937699327</v>
+        <v>1116093.021081084</v>
       </c>
       <c r="J137">
-        <v>711.5794891796464</v>
+        <v>4841810.949218491</v>
       </c>
       <c r="K137">
-        <v>3033.556414510534</v>
+        <v>3987027.488149184</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5234,7 +5231,7 @@
         <v>97</v>
       </c>
       <c r="B138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C138" t="s">
         <v>15</v>
@@ -5246,22 +5243,22 @@
         <v>182.142</v>
       </c>
       <c r="F138">
-        <v>17.41653721871143</v>
+        <v>1116412.274285859</v>
       </c>
       <c r="G138">
-        <v>408.2425521392037</v>
+        <v>4841500.95409145</v>
       </c>
       <c r="H138">
-        <v>1497.561383992944</v>
+        <v>3986147.317397272</v>
       </c>
       <c r="I138">
-        <v>-270.7314987795313</v>
+        <v>1116152.982087661</v>
       </c>
       <c r="J138">
-        <v>652.8131664911372</v>
+        <v>4841762.297644618</v>
       </c>
       <c r="K138">
-        <v>2878.994375285425</v>
+        <v>3986891.973067578</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5269,7 +5266,7 @@
         <v>97</v>
       </c>
       <c r="B139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C139" t="s">
         <v>15</v>
@@ -5281,22 +5278,22 @@
         <v>183.142</v>
       </c>
       <c r="F139">
-        <v>17.05015372207488</v>
+        <v>1116411.19509281</v>
       </c>
       <c r="G139">
-        <v>432.3360488402318</v>
+        <v>4841517.46689905</v>
       </c>
       <c r="H139">
-        <v>1508.259629653812</v>
+        <v>3986160.052442009</v>
       </c>
       <c r="I139">
-        <v>-190.6205529795114</v>
+        <v>1116214.419578863</v>
       </c>
       <c r="J139">
-        <v>594.046843802628</v>
+        <v>4841713.646070745</v>
       </c>
       <c r="K139">
-        <v>2707.154507205056</v>
+        <v>3986741.309334991</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5304,7 +5301,7 @@
         <v>97</v>
       </c>
       <c r="B140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C140" t="s">
         <v>15</v>
@@ -5316,22 +5313,22 @@
         <v>184.142</v>
       </c>
       <c r="F140">
-        <v>16.70594864318787</v>
+        <v>1116410.181226924</v>
       </c>
       <c r="G140">
-        <v>456.4295455412599</v>
+        <v>4841533.979706651</v>
       </c>
       <c r="H140">
-        <v>1518.522165958135</v>
+        <v>3986172.268824311</v>
       </c>
       <c r="I140">
-        <v>-108.5369488398845</v>
+        <v>1116277.369911764</v>
       </c>
       <c r="J140">
-        <v>535.2805211141188</v>
+        <v>4841664.994496873</v>
       </c>
       <c r="K140">
-        <v>2518.036810269424</v>
+        <v>3986575.496951421</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5339,7 +5336,7 @@
         <v>97</v>
       </c>
       <c r="B141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C141" t="s">
         <v>15</v>
@@ -5351,22 +5348,22 @@
         <v>185.142</v>
       </c>
       <c r="F141">
-        <v>16.38177215165366</v>
+        <v>1116409.226355813</v>
       </c>
       <c r="G141">
-        <v>480.5230422422881</v>
+        <v>4841550.492514251</v>
       </c>
       <c r="H141">
-        <v>1528.383098821125</v>
+        <v>3986184.007143391</v>
       </c>
       <c r="I141">
-        <v>-24.43211146385083</v>
+        <v>1116341.870338699</v>
       </c>
       <c r="J141">
-        <v>476.5141984256094</v>
+        <v>4841616.342922999</v>
       </c>
       <c r="K141">
-        <v>2311.641284478531</v>
+        <v>3986394.535916869</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5374,7 +5371,7 @@
         <v>97</v>
       </c>
       <c r="B142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C142" t="s">
         <v>15</v>
@@ -5386,22 +5383,22 @@
         <v>186.142</v>
       </c>
       <c r="F142">
-        <v>16.07575516064941</v>
+        <v>1116408.32497403</v>
       </c>
       <c r="G142">
-        <v>504.6165389433162</v>
+        <v>4841567.005321851</v>
       </c>
       <c r="H142">
-        <v>1537.872679980607</v>
+        <v>3986195.303410502</v>
       </c>
       <c r="I142">
-        <v>61.74373015753631</v>
+        <v>1116407.959029308</v>
       </c>
       <c r="J142">
-        <v>417.7478757371003</v>
+        <v>4841567.691349125</v>
       </c>
       <c r="K142">
-        <v>2087.967929832378</v>
+        <v>3986198.426231335</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5409,7 +5406,7 @@
         <v>97</v>
       </c>
       <c r="B143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C143" t="s">
         <v>15</v>
@@ -5421,22 +5418,22 @@
         <v>187.142</v>
       </c>
       <c r="F143">
-        <v>15.78626390276863</v>
+        <v>1116407.472269265</v>
       </c>
       <c r="G143">
-        <v>528.7100356443443</v>
+        <v>4841583.518129452</v>
       </c>
       <c r="H143">
-        <v>1547.017866704773</v>
+        <v>3986206.189715206</v>
       </c>
       <c r="I143">
-        <v>150.0415725985294</v>
+        <v>1116475.675093123</v>
       </c>
       <c r="J143">
-        <v>358.9815530485909</v>
+        <v>4841519.039775253</v>
       </c>
       <c r="K143">
-        <v>1847.016746330963</v>
+        <v>3985987.167894819</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5444,7 +5441,7 @@
         <v>97</v>
       </c>
       <c r="B144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C144" t="s">
         <v>15</v>
@@ -5456,22 +5453,22 @@
         <v>188.142</v>
       </c>
       <c r="F144">
-        <v>15.51186317386404</v>
+        <v>1116406.664014084</v>
       </c>
       <c r="G144">
-        <v>552.8035323453724</v>
+        <v>4841600.030937052</v>
       </c>
       <c r="H144">
-        <v>1555.842783447688</v>
+        <v>3986216.694774922</v>
       </c>
       <c r="I144">
-        <v>240.5136681771072</v>
+        <v>1116545.058602712</v>
       </c>
       <c r="J144">
-        <v>300.2152303600819</v>
+        <v>4841470.38820138</v>
       </c>
       <c r="K144">
-        <v>1588.787733974287</v>
+        <v>3985760.760907321</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5479,7 +5476,7 @@
         <v>97</v>
       </c>
       <c r="B145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C145" t="s">
         <v>15</v>
@@ -5491,22 +5488,22 @@
         <v>189.142</v>
       </c>
       <c r="F145">
-        <v>15.25128635627414</v>
+        <v>1116405.896477629</v>
       </c>
       <c r="G145">
-        <v>576.8970290464006</v>
+        <v>4841616.543744653</v>
       </c>
       <c r="H145">
-        <v>1564.369105369388</v>
+        <v>3986226.844391462</v>
       </c>
       <c r="I145">
-        <v>333.2135558765048</v>
+        <v>1116616.150617393</v>
       </c>
       <c r="J145">
-        <v>241.4489076715725</v>
+        <v>4841421.736627506</v>
       </c>
       <c r="K145">
-        <v>1313.280892762348</v>
+        <v>3985519.205268841</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5514,7 +5511,7 @@
         <v>97</v>
       </c>
       <c r="B146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C146" t="s">
         <v>15</v>
@@ -5526,22 +5523,22 @@
         <v>190.142</v>
       </c>
       <c r="F146">
-        <v>15.00341079207802</v>
+        <v>1116405.166353078</v>
       </c>
       <c r="G146">
-        <v>600.9905257474286</v>
+        <v>4841633.056552254</v>
       </c>
       <c r="H146">
-        <v>1572.616379071687</v>
+        <v>3986236.661832835</v>
       </c>
       <c r="I146">
-        <v>428.196093028168</v>
+        <v>1116688.993207531</v>
       </c>
       <c r="J146">
-        <v>182.6825849830632</v>
+        <v>4841373.085053634</v>
       </c>
       <c r="K146">
-        <v>1020.496222695149</v>
+        <v>3985262.500979379</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5549,7 +5546,7 @@
         <v>97</v>
       </c>
       <c r="B147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C147" t="s">
         <v>15</v>
@@ -5561,22 +5558,22 @@
         <v>191.142</v>
       </c>
       <c r="F147">
-        <v>14.7672374137249</v>
+        <v>1116404.47069765</v>
       </c>
       <c r="G147">
-        <v>625.0840224484567</v>
+        <v>4841649.569359853</v>
       </c>
       <c r="H147">
-        <v>1580.602292493431</v>
+        <v>3986246.168154517</v>
       </c>
       <c r="I147">
-        <v>525.5174877748576</v>
+        <v>1116763.629479438</v>
       </c>
       <c r="J147">
-        <v>123.9162622945541</v>
+        <v>4841324.433479761</v>
       </c>
       <c r="K147">
-        <v>710.4337237726886</v>
+        <v>3984990.648038934</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5584,7 +5581,7 @@
         <v>97</v>
       </c>
       <c r="B148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C148" t="s">
         <v>15</v>
@@ -5596,22 +5593,22 @@
         <v>192.142</v>
       </c>
       <c r="F148">
-        <v>14.54187378896085</v>
+        <v>1116403.80688266</v>
       </c>
       <c r="G148">
-        <v>649.1775191494849</v>
+        <v>4841666.082167454</v>
       </c>
       <c r="H148">
-        <v>1588.342903339389</v>
+        <v>3986255.382471382</v>
       </c>
       <c r="I148">
-        <v>625.235332333145</v>
+        <v>1116840.103600877</v>
       </c>
       <c r="J148">
-        <v>65.14993960604473</v>
+        <v>4841275.781905888</v>
       </c>
       <c r="K148">
-        <v>383.0933959949663</v>
+        <v>3984703.646447508</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5619,7 +5616,7 @@
         <v>97</v>
       </c>
       <c r="B149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C149" t="s">
         <v>15</v>
@@ -5631,22 +5628,22 @@
         <v>193.142</v>
       </c>
       <c r="F149">
-        <v>14.32651992386754</v>
+        <v>1116403.172551702</v>
       </c>
       <c r="G149">
-        <v>673.2710158505131</v>
+        <v>4841682.594975054</v>
       </c>
       <c r="H149">
-        <v>1595.852833460418</v>
+        <v>3986264.32218908</v>
       </c>
       <c r="I149">
-        <v>727.4086370749446</v>
+        <v>1116918.460827201</v>
       </c>
       <c r="J149">
-        <v>6.383616917535382</v>
+        <v>4841227.130332015</v>
       </c>
       <c r="K149">
-        <v>38.47523936198281</v>
+        <v>3984401.4962051</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5654,7 +5651,7 @@
         <v>97</v>
       </c>
       <c r="B150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C150" t="s">
         <v>15</v>
@@ -5666,22 +5663,22 @@
         <v>194.142</v>
       </c>
       <c r="F150">
-        <v>14.12045630912751</v>
+        <v>1116402.565585442</v>
       </c>
       <c r="G150">
-        <v>697.3645125515411</v>
+        <v>4841699.107782654</v>
       </c>
       <c r="H150">
-        <v>1603.145435099236</v>
+        <v>3986273.003201935</v>
       </c>
       <c r="I150">
-        <v>832.0978654482934</v>
+        <v>1116998.747528136</v>
       </c>
       <c r="J150">
-        <v>-52.38270577097369</v>
+        <v>4841178.478758141</v>
       </c>
       <c r="K150">
-        <v>-323.420746126261</v>
+        <v>3984084.19731171</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5689,7 +5686,7 @@
         <v>97</v>
       </c>
       <c r="B151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C151" t="s">
         <v>15</v>
@@ -5701,22 +5698,22 @@
         <v>195.142</v>
       </c>
       <c r="F151">
-        <v>13.92303380241579</v>
+        <v>1116401.984071812</v>
       </c>
       <c r="G151">
-        <v>721.4580092525692</v>
+        <v>4841715.620590255</v>
       </c>
       <c r="H151">
-        <v>1610.232933751198</v>
+        <v>3986281.440063013</v>
       </c>
       <c r="I151">
-        <v>939.3649697580124</v>
+        <v>1117081.011215219</v>
       </c>
       <c r="J151">
-        <v>-111.149028459483</v>
+        <v>4841129.827184268</v>
       </c>
       <c r="K151">
-        <v>-702.5945604697671</v>
+        <v>3983751.749767338</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5724,7 +5721,7 @@
         <v>97</v>
       </c>
       <c r="B152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C152" t="s">
         <v>15</v>
@@ -5736,22 +5733,22 @@
         <v>196.142</v>
       </c>
       <c r="F152">
-        <v>13.73366502273025</v>
+        <v>1116401.426280665</v>
       </c>
       <c r="G152">
-        <v>745.5515059535974</v>
+        <v>4841732.133397855</v>
       </c>
       <c r="H152">
-        <v>1617.126551479649</v>
+        <v>3986289.6461309</v>
       </c>
       <c r="I152">
-        <v>1049.273427827432</v>
+        <v>1117165.300569916</v>
       </c>
       <c r="J152">
-        <v>-169.9153511479924</v>
+        <v>4841081.175610395</v>
       </c>
       <c r="K152">
-        <v>-1099.046203668536</v>
+        <v>3983404.153571983</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5759,7 +5756,7 @@
         <v>97</v>
       </c>
       <c r="B153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C153" t="s">
         <v>15</v>
@@ -5771,22 +5768,22 @@
         <v>197.142</v>
       </c>
       <c r="F153">
-        <v>13.55181699675882</v>
+        <v>1116400.890642114</v>
       </c>
       <c r="G153">
-        <v>769.6450026546255</v>
+        <v>4841748.646205455</v>
       </c>
       <c r="H153">
-        <v>1623.836613809499</v>
+        <v>3986297.633696963</v>
       </c>
       <c r="I153">
-        <v>1161.888280562884</v>
+        <v>1117251.665472426</v>
       </c>
       <c r="J153">
-        <v>-228.6816738365017</v>
+        <v>4841032.524036522</v>
       </c>
       <c r="K153">
-        <v>-1512.775675722565</v>
+        <v>3983041.408725647</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5794,7 +5791,7 @@
         <v>97</v>
       </c>
       <c r="B154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C154" t="s">
         <v>15</v>
@@ -5806,22 +5803,22 @@
         <v>198.142</v>
       </c>
       <c r="F154">
-        <v>13.37700484759359</v>
+        <v>1116400.375727938</v>
       </c>
       <c r="G154">
-        <v>793.7384993556535</v>
+        <v>4841765.159013056</v>
       </c>
       <c r="H154">
-        <v>1630.372642755321</v>
+        <v>3986305.414096073</v>
       </c>
       <c r="I154">
-        <v>1277.276170443181</v>
+        <v>1117340.157031208</v>
       </c>
       <c r="J154">
-        <v>-287.4479965250105</v>
+        <v>4840983.872462649</v>
       </c>
       <c r="K154">
-        <v>-1943.782976631852</v>
+        <v>3982663.515228329</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5829,7 +5826,7 @@
         <v>97</v>
       </c>
       <c r="B155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C155" t="s">
         <v>15</v>
@@ -5841,22 +5838,22 @@
         <v>199.142</v>
       </c>
       <c r="F155">
-        <v>13.20878635559859</v>
+        <v>1116399.880235567</v>
       </c>
       <c r="G155">
-        <v>817.8319960566818</v>
+        <v>4841781.671820655</v>
       </c>
       <c r="H155">
-        <v>1636.74343808774</v>
+        <v>3986312.997803359</v>
       </c>
       <c r="I155">
-        <v>1395.50538095687</v>
+        <v>1117430.827613213</v>
       </c>
       <c r="J155">
-        <v>-346.2143192135199</v>
+        <v>4840935.220888777</v>
       </c>
       <c r="K155">
-        <v>-2392.068106396403</v>
+        <v>3982270.473080029</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5864,7 +5861,7 @@
         <v>97</v>
       </c>
       <c r="B156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C156" t="s">
         <v>15</v>
@@ -5876,22 +5873,22 @@
         <v>200.142</v>
       </c>
       <c r="F156">
-        <v>13.04675725251079</v>
+        <v>1116399.402974218</v>
       </c>
       <c r="G156">
-        <v>841.9254927577098</v>
+        <v>4841798.184628257</v>
       </c>
       <c r="H156">
-        <v>1642.957148578672</v>
+        <v>3986320.394519008</v>
       </c>
       <c r="I156">
-        <v>1516.645877010578</v>
+        <v>1117523.730874885</v>
       </c>
       <c r="J156">
-        <v>-404.9806419020292</v>
+        <v>4840886.569314903</v>
       </c>
       <c r="K156">
-        <v>-2857.631065016217</v>
+        <v>3981862.282280746</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5899,7 +5896,7 @@
         <v>97</v>
       </c>
       <c r="B157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C157" t="s">
         <v>15</v>
@@ -5911,22 +5908,22 @@
         <v>201.142</v>
       </c>
       <c r="F157">
-        <v>12.89054713477097</v>
+        <v>1116398.942852857</v>
       </c>
       <c r="G157">
-        <v>866.0189894587379</v>
+        <v>4841814.697435857</v>
       </c>
       <c r="H157">
-        <v>1649.021334672659</v>
+        <v>3986327.613242866</v>
       </c>
       <c r="I157">
-        <v>1640.769346332396</v>
+        <v>1117618.921793906</v>
       </c>
       <c r="J157">
-        <v>-463.7469645905386</v>
+        <v>4840837.91774103</v>
       </c>
       <c r="K157">
-        <v>-3340.471852491291</v>
+        <v>3981438.942830482</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5934,7 +5931,7 @@
         <v>97</v>
       </c>
       <c r="B158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C158" t="s">
         <v>15</v>
@@ -5946,22 +5943,22 @@
         <v>202.142</v>
       </c>
       <c r="F158">
-        <v>12.73981590205315</v>
+        <v>1116398.498869708</v>
       </c>
       <c r="G158">
-        <v>890.1124861597661</v>
+        <v>4841831.210243457</v>
       </c>
       <c r="H158">
-        <v>1654.943023793429</v>
+        <v>3986334.662340285</v>
       </c>
       <c r="I158">
-        <v>1767.949241894767</v>
+        <v>1117716.456701734</v>
       </c>
       <c r="J158">
-        <v>-522.513287279048</v>
+        <v>4840789.266167157</v>
       </c>
       <c r="K158">
-        <v>-3840.590468821627</v>
+        <v>3981000.454729235</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5969,7 +5966,7 @@
         <v>97</v>
       </c>
       <c r="B159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C159" t="s">
         <v>15</v>
@@ -5981,22 +5978,22 @@
         <v>203.142</v>
       </c>
       <c r="F159">
-        <v>12.59425064305711</v>
+        <v>1116398.070103082</v>
       </c>
       <c r="G159">
-        <v>914.2059828607942</v>
+        <v>4841847.723051057</v>
       </c>
       <c r="H159">
-        <v>1660.728759300446</v>
+        <v>3986341.549600389</v>
       </c>
       <c r="I159">
-        <v>1898.260825381999</v>
+        <v>1117816.393316936</v>
       </c>
       <c r="J159">
-        <v>-581.2796099675568</v>
+        <v>4840740.614593284</v>
       </c>
       <c r="K159">
-        <v>-4357.986914007221</v>
+        <v>3980546.817977007</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -6004,7 +6001,7 @@
         <v>97</v>
       </c>
       <c r="B160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C160" t="s">
         <v>15</v>
@@ -6016,1877 +6013,22 @@
         <v>204.142</v>
       </c>
       <c r="F160">
-        <v>12.45356290367418</v>
+        <v>1116397.655703329</v>
       </c>
       <c r="G160">
-        <v>938.2994795618222</v>
+        <v>4841864.235858658</v>
       </c>
       <c r="H160">
-        <v>1666.384643950728</v>
+        <v>3986348.282287816</v>
       </c>
       <c r="I160">
-        <v>2031.781211728149</v>
+        <v>1117918.790779348</v>
       </c>
       <c r="J160">
-        <v>-640.045932656066</v>
+        <v>4840691.96301941</v>
       </c>
       <c r="K160">
-        <v>-4892.661188048079</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11">
-      <c r="A161">
-        <v>97</v>
-      </c>
-      <c r="B161" t="s">
-        <v>12</v>
-      </c>
-      <c r="C161" t="s">
-        <v>16</v>
-      </c>
-      <c r="D161" t="s">
-        <v>18</v>
-      </c>
-      <c r="E161">
-        <v>152.142</v>
-      </c>
-      <c r="F161">
-        <v>123.8247123781927</v>
-      </c>
-      <c r="G161">
-        <v>-38.88631413378899</v>
-      </c>
-      <c r="H161">
-        <v>705.273648804212</v>
-      </c>
-      <c r="I161">
-        <v>-1911.779707787185</v>
-      </c>
-      <c r="J161">
-        <v>2143.673657976136</v>
-      </c>
-      <c r="K161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11">
-      <c r="A162">
-        <v>97</v>
-      </c>
-      <c r="B162" t="s">
-        <v>12</v>
-      </c>
-      <c r="C162" t="s">
-        <v>16</v>
-      </c>
-      <c r="D162" t="s">
-        <v>18</v>
-      </c>
-      <c r="E162">
-        <v>153.142</v>
-      </c>
-      <c r="F162">
-        <v>123.8247123781927</v>
-      </c>
-      <c r="G162">
-        <v>-38.88631413378899</v>
-      </c>
-      <c r="H162">
-        <v>705.273648804212</v>
-      </c>
-      <c r="I162">
-        <v>-1874.036085788297</v>
-      </c>
-      <c r="J162">
-        <v>2091.527093916785</v>
-      </c>
-      <c r="K162">
-        <v>259.7389720003462</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11">
-      <c r="A163">
-        <v>97</v>
-      </c>
-      <c r="B163" t="s">
-        <v>12</v>
-      </c>
-      <c r="C163" t="s">
-        <v>16</v>
-      </c>
-      <c r="D163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E163">
-        <v>154.142</v>
-      </c>
-      <c r="F163">
-        <v>123.8247123781927</v>
-      </c>
-      <c r="G163">
-        <v>-38.88631413378899</v>
-      </c>
-      <c r="H163">
-        <v>705.273648804212</v>
-      </c>
-      <c r="I163">
-        <v>-1835.363061821182</v>
-      </c>
-      <c r="J163">
-        <v>2039.380529857435</v>
-      </c>
-      <c r="K163">
-        <v>506.5261682560499</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11">
-      <c r="A164">
-        <v>97</v>
-      </c>
-      <c r="B164" t="s">
-        <v>12</v>
-      </c>
-      <c r="C164" t="s">
-        <v>16</v>
-      </c>
-      <c r="D164" t="s">
-        <v>18</v>
-      </c>
-      <c r="E164">
-        <v>155.142</v>
-      </c>
-      <c r="F164">
-        <v>123.8247123781927</v>
-      </c>
-      <c r="G164">
-        <v>-38.88631413378899</v>
-      </c>
-      <c r="H164">
-        <v>705.273648804212</v>
-      </c>
-      <c r="I164">
-        <v>-1795.737750217406</v>
-      </c>
-      <c r="J164">
-        <v>1987.233965798084</v>
-      </c>
-      <c r="K164">
-        <v>740.3615887671129</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11">
-      <c r="A165">
-        <v>97</v>
-      </c>
-      <c r="B165" t="s">
-        <v>12</v>
-      </c>
-      <c r="C165" t="s">
-        <v>16</v>
-      </c>
-      <c r="D165" t="s">
-        <v>18</v>
-      </c>
-      <c r="E165">
-        <v>156.142</v>
-      </c>
-      <c r="F165">
-        <v>123.8247123781927</v>
-      </c>
-      <c r="G165">
-        <v>-38.88631413378899</v>
-      </c>
-      <c r="H165">
-        <v>705.273648804212</v>
-      </c>
-      <c r="I165">
-        <v>-1755.136701770006</v>
-      </c>
-      <c r="J165">
-        <v>1935.087401738733</v>
-      </c>
-      <c r="K165">
-        <v>961.2452335335337</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11">
-      <c r="A166">
-        <v>97</v>
-      </c>
-      <c r="B166" t="s">
-        <v>12</v>
-      </c>
-      <c r="C166" t="s">
-        <v>16</v>
-      </c>
-      <c r="D166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E166">
-        <v>157.142</v>
-      </c>
-      <c r="F166">
-        <v>123.8247123781927</v>
-      </c>
-      <c r="G166">
-        <v>-38.88631413378899</v>
-      </c>
-      <c r="H166">
-        <v>705.273648804212</v>
-      </c>
-      <c r="I166">
-        <v>-1713.535889856867</v>
-      </c>
-      <c r="J166">
-        <v>1882.940837679382</v>
-      </c>
-      <c r="K166">
-        <v>1169.177102555314</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11">
-      <c r="A167">
-        <v>97</v>
-      </c>
-      <c r="B167" t="s">
-        <v>12</v>
-      </c>
-      <c r="C167" t="s">
-        <v>16</v>
-      </c>
-      <c r="D167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E167">
-        <v>158.142</v>
-      </c>
-      <c r="F167">
-        <v>123.8247123781927</v>
-      </c>
-      <c r="G167">
-        <v>-38.88631413378899</v>
-      </c>
-      <c r="H167">
-        <v>705.273648804212</v>
-      </c>
-      <c r="I167">
-        <v>-1670.910696222414</v>
-      </c>
-      <c r="J167">
-        <v>1830.794273620031</v>
-      </c>
-      <c r="K167">
-        <v>1364.157195832453</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11">
-      <c r="A168">
-        <v>97</v>
-      </c>
-      <c r="B168" t="s">
-        <v>12</v>
-      </c>
-      <c r="C168" t="s">
-        <v>16</v>
-      </c>
-      <c r="D168" t="s">
-        <v>18</v>
-      </c>
-      <c r="E168">
-        <v>159.142</v>
-      </c>
-      <c r="F168">
-        <v>123.8247123781927</v>
-      </c>
-      <c r="G168">
-        <v>-38.88631413378899</v>
-      </c>
-      <c r="H168">
-        <v>705.273648804212</v>
-      </c>
-      <c r="I168">
-        <v>-1627.235896409171</v>
-      </c>
-      <c r="J168">
-        <v>1778.64770956068</v>
-      </c>
-      <c r="K168">
-        <v>1546.18551336495</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11">
-      <c r="A169">
-        <v>97</v>
-      </c>
-      <c r="B169" t="s">
-        <v>12</v>
-      </c>
-      <c r="C169" t="s">
-        <v>16</v>
-      </c>
-      <c r="D169" t="s">
-        <v>18</v>
-      </c>
-      <c r="E169">
-        <v>160.142</v>
-      </c>
-      <c r="F169">
-        <v>123.8247123781927</v>
-      </c>
-      <c r="G169">
-        <v>-32.46508909256926</v>
-      </c>
-      <c r="H169">
-        <v>705.273648804212</v>
-      </c>
-      <c r="I169">
-        <v>-1582.485644830605</v>
-      </c>
-      <c r="J169">
-        <v>1726.50114550133</v>
-      </c>
-      <c r="K169">
-        <v>1715.262055152805</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11">
-      <c r="A170">
-        <v>97</v>
-      </c>
-      <c r="B170" t="s">
-        <v>12</v>
-      </c>
-      <c r="C170" t="s">
-        <v>16</v>
-      </c>
-      <c r="D170" t="s">
-        <v>18</v>
-      </c>
-      <c r="E170">
-        <v>161.142</v>
-      </c>
-      <c r="F170">
-        <v>96.10242175791751</v>
-      </c>
-      <c r="G170">
-        <v>-26.04386405134953</v>
-      </c>
-      <c r="H170">
-        <v>868.892389501041</v>
-      </c>
-      <c r="I170">
-        <v>-1536.633459476395</v>
-      </c>
-      <c r="J170">
-        <v>1674.354581441979</v>
-      </c>
-      <c r="K170">
-        <v>1871.386821196018</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11">
-      <c r="A171">
-        <v>97</v>
-      </c>
-      <c r="B171" t="s">
-        <v>12</v>
-      </c>
-      <c r="C171" t="s">
-        <v>16</v>
-      </c>
-      <c r="D171" t="s">
-        <v>18</v>
-      </c>
-      <c r="E171">
-        <v>162.142</v>
-      </c>
-      <c r="F171">
-        <v>79.81696671872689</v>
-      </c>
-      <c r="G171">
-        <v>-19.6226390101298</v>
-      </c>
-      <c r="H171">
-        <v>966.3520792401473</v>
-      </c>
-      <c r="I171">
-        <v>-1489.652206241073</v>
-      </c>
-      <c r="J171">
-        <v>1622.208017382628</v>
-      </c>
-      <c r="K171">
-        <v>2014.55981149459</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11">
-      <c r="A172">
-        <v>97</v>
-      </c>
-      <c r="B172" t="s">
-        <v>12</v>
-      </c>
-      <c r="C172" t="s">
-        <v>16</v>
-      </c>
-      <c r="D172" t="s">
-        <v>18</v>
-      </c>
-      <c r="E172">
-        <v>163.142</v>
-      </c>
-      <c r="F172">
-        <v>69.53639273655888</v>
-      </c>
-      <c r="G172">
-        <v>-13.20141396891007</v>
-      </c>
-      <c r="H172">
-        <v>1035.999932448075</v>
-      </c>
-      <c r="I172">
-        <v>-1441.514082866792</v>
-      </c>
-      <c r="J172">
-        <v>1570.061453323277</v>
-      </c>
-      <c r="K172">
-        <v>2144.781026048522</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11">
-      <c r="A173">
-        <v>97</v>
-      </c>
-      <c r="B173" t="s">
-        <v>12</v>
-      </c>
-      <c r="C173" t="s">
-        <v>16</v>
-      </c>
-      <c r="D173" t="s">
-        <v>18</v>
-      </c>
-      <c r="E173">
-        <v>164.142</v>
-      </c>
-      <c r="F173">
-        <v>62.36676217269465</v>
-      </c>
-      <c r="G173">
-        <v>-6.780188927690341</v>
-      </c>
-      <c r="H173">
-        <v>1090.234678427224</v>
-      </c>
-      <c r="I173">
-        <v>-1392.190602490681</v>
-      </c>
-      <c r="J173">
-        <v>1517.914889263926</v>
-      </c>
-      <c r="K173">
-        <v>2262.050464857811</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11">
-      <c r="A174">
-        <v>97</v>
-      </c>
-      <c r="B174" t="s">
-        <v>12</v>
-      </c>
-      <c r="C174" t="s">
-        <v>16</v>
-      </c>
-      <c r="D174" t="s">
-        <v>18</v>
-      </c>
-      <c r="E174">
-        <v>165.142</v>
-      </c>
-      <c r="F174">
-        <v>57.01800306611387</v>
-      </c>
-      <c r="G174">
-        <v>-0.3589638864706156</v>
-      </c>
-      <c r="H174">
-        <v>1134.657142214504</v>
-      </c>
-      <c r="I174">
-        <v>-1341.652576787079</v>
-      </c>
-      <c r="J174">
-        <v>1465.768325204576</v>
-      </c>
-      <c r="K174">
-        <v>2366.368127922459</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11">
-      <c r="A175">
-        <v>97</v>
-      </c>
-      <c r="B175" t="s">
-        <v>12</v>
-      </c>
-      <c r="C175" t="s">
-        <v>16</v>
-      </c>
-      <c r="D175" t="s">
-        <v>18</v>
-      </c>
-      <c r="E175">
-        <v>166.142</v>
-      </c>
-      <c r="F175">
-        <v>52.83602037683278</v>
-      </c>
-      <c r="G175">
-        <v>6.062261154749115</v>
-      </c>
-      <c r="H175">
-        <v>1172.27972635964</v>
-      </c>
-      <c r="I175">
-        <v>-1289.870098694656</v>
-      </c>
-      <c r="J175">
-        <v>1413.621761145225</v>
-      </c>
-      <c r="K175">
-        <v>2457.734015242465</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11">
-      <c r="A176">
-        <v>97</v>
-      </c>
-      <c r="B176" t="s">
-        <v>12</v>
-      </c>
-      <c r="C176" t="s">
-        <v>16</v>
-      </c>
-      <c r="D176" t="s">
-        <v>18</v>
-      </c>
-      <c r="E176">
-        <v>167.142</v>
-      </c>
-      <c r="F176">
-        <v>49.4524918810602</v>
-      </c>
-      <c r="G176">
-        <v>12.48348619596885</v>
-      </c>
-      <c r="H176">
-        <v>1204.910466011808</v>
-      </c>
-      <c r="I176">
-        <v>-1236.812524718213</v>
-      </c>
-      <c r="J176">
-        <v>1361.475197085874</v>
-      </c>
-      <c r="K176">
-        <v>2536.14812681783</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11">
-      <c r="A177">
-        <v>97</v>
-      </c>
-      <c r="B177" t="s">
-        <v>12</v>
-      </c>
-      <c r="C177" t="s">
-        <v>16</v>
-      </c>
-      <c r="D177" t="s">
-        <v>18</v>
-      </c>
-      <c r="E177">
-        <v>168.142</v>
-      </c>
-      <c r="F177">
-        <v>46.6429576108258</v>
-      </c>
-      <c r="G177">
-        <v>18.90471123718857</v>
-      </c>
-      <c r="H177">
-        <v>1233.720180192301</v>
-      </c>
-      <c r="I177">
-        <v>-1182.448456794674</v>
-      </c>
-      <c r="J177">
-        <v>1309.328633026523</v>
-      </c>
-      <c r="K177">
-        <v>2601.610462648553</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11">
-      <c r="A178">
-        <v>97</v>
-      </c>
-      <c r="B178" t="s">
-        <v>12</v>
-      </c>
-      <c r="C178" t="s">
-        <v>16</v>
-      </c>
-      <c r="D178" t="s">
-        <v>18</v>
-      </c>
-      <c r="E178">
-        <v>169.142</v>
-      </c>
-      <c r="F178">
-        <v>44.26208870799048</v>
-      </c>
-      <c r="G178">
-        <v>25.32593627840831</v>
-      </c>
-      <c r="H178">
-        <v>1259.510671730323</v>
-      </c>
-      <c r="I178">
-        <v>-1126.745723712543</v>
-      </c>
-      <c r="J178">
-        <v>1257.182068967172</v>
-      </c>
-      <c r="K178">
-        <v>2654.121022734636</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11">
-      <c r="A179">
-        <v>97</v>
-      </c>
-      <c r="B179" t="s">
-        <v>12</v>
-      </c>
-      <c r="C179" t="s">
-        <v>16</v>
-      </c>
-      <c r="D179" t="s">
-        <v>18</v>
-      </c>
-      <c r="E179">
-        <v>170.142</v>
-      </c>
-      <c r="F179">
-        <v>42.21120242664011</v>
-      </c>
-      <c r="G179">
-        <v>31.74716131962803</v>
-      </c>
-      <c r="H179">
-        <v>1282.855162683054</v>
-      </c>
-      <c r="I179">
-        <v>-1069.671362073839</v>
-      </c>
-      <c r="J179">
-        <v>1205.035504907821</v>
-      </c>
-      <c r="K179">
-        <v>2693.679807076076</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11">
-      <c r="A180">
-        <v>97</v>
-      </c>
-      <c r="B180" t="s">
-        <v>12</v>
-      </c>
-      <c r="C180" t="s">
-        <v>16</v>
-      </c>
-      <c r="D180" t="s">
-        <v>18</v>
-      </c>
-      <c r="E180">
-        <v>171.142</v>
-      </c>
-      <c r="F180">
-        <v>40.42067273017005</v>
-      </c>
-      <c r="G180">
-        <v>38.16838636084776</v>
-      </c>
-      <c r="H180">
-        <v>1304.177689644226</v>
-      </c>
-      <c r="I180">
-        <v>-1011.191596787232</v>
-      </c>
-      <c r="J180">
-        <v>1152.888940848471</v>
-      </c>
-      <c r="K180">
-        <v>2720.286815672875</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11">
-      <c r="A181">
-        <v>97</v>
-      </c>
-      <c r="B181" t="s">
-        <v>12</v>
-      </c>
-      <c r="C181" t="s">
-        <v>16</v>
-      </c>
-      <c r="D181" t="s">
-        <v>18</v>
-      </c>
-      <c r="E181">
-        <v>172.142</v>
-      </c>
-      <c r="F181">
-        <v>38.83980423940032</v>
-      </c>
-      <c r="G181">
-        <v>44.5896114020675</v>
-      </c>
-      <c r="H181">
-        <v>1323.80076513165</v>
-      </c>
-      <c r="I181">
-        <v>-951.2718210808391</v>
-      </c>
-      <c r="J181">
-        <v>1100.74237678912</v>
-      </c>
-      <c r="K181">
-        <v>2733.942048525033</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11">
-      <c r="A182">
-        <v>97</v>
-      </c>
-      <c r="B182" t="s">
-        <v>12</v>
-      </c>
-      <c r="C182" t="s">
-        <v>16</v>
-      </c>
-      <c r="D182" t="s">
-        <v>18</v>
-      </c>
-      <c r="E182">
-        <v>173.142</v>
-      </c>
-      <c r="F182">
-        <v>37.43070197335184</v>
-      </c>
-      <c r="G182">
-        <v>51.01083644328722</v>
-      </c>
-      <c r="H182">
-        <v>1341.975405371206</v>
-      </c>
-      <c r="I182">
-        <v>-889.8765760228596</v>
-      </c>
-      <c r="J182">
-        <v>1048.595812729769</v>
-      </c>
-      <c r="K182">
-        <v>2734.645505632548</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11">
-      <c r="A183">
-        <v>97</v>
-      </c>
-      <c r="B183" t="s">
-        <v>12</v>
-      </c>
-      <c r="C183" t="s">
-        <v>16</v>
-      </c>
-      <c r="D183" t="s">
-        <v>18</v>
-      </c>
-      <c r="E183">
-        <v>174.142</v>
-      </c>
-      <c r="F183">
-        <v>36.16440104919648</v>
-      </c>
-      <c r="G183">
-        <v>57.43206148450696</v>
-      </c>
-      <c r="H183">
-        <v>1358.900816755225</v>
-      </c>
-      <c r="I183">
-        <v>-826.9695295379173</v>
-      </c>
-      <c r="J183">
-        <v>996.449248670418</v>
-      </c>
-      <c r="K183">
-        <v>2722.397186995423</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11">
-      <c r="A184">
-        <v>97</v>
-      </c>
-      <c r="B184" t="s">
-        <v>12</v>
-      </c>
-      <c r="C184" t="s">
-        <v>16</v>
-      </c>
-      <c r="D184" t="s">
-        <v>18</v>
-      </c>
-      <c r="E184">
-        <v>175.142</v>
-      </c>
-      <c r="F184">
-        <v>35.0183348470257</v>
-      </c>
-      <c r="G184">
-        <v>63.85328652572668</v>
-      </c>
-      <c r="H184">
-        <v>1374.737740701407</v>
-      </c>
-      <c r="I184">
-        <v>-762.5134549067044</v>
-      </c>
-      <c r="J184">
-        <v>944.3026846110673</v>
-      </c>
-      <c r="K184">
-        <v>2697.197092613656</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11">
-      <c r="A185">
-        <v>97</v>
-      </c>
-      <c r="B185" t="s">
-        <v>12</v>
-      </c>
-      <c r="C185" t="s">
-        <v>16</v>
-      </c>
-      <c r="D185" t="s">
-        <v>18</v>
-      </c>
-      <c r="E185">
-        <v>176.142</v>
-      </c>
-      <c r="F185">
-        <v>33.97462757475751</v>
-      </c>
-      <c r="G185">
-        <v>70.27451156694642</v>
-      </c>
-      <c r="H185">
-        <v>1389.617760616833</v>
-      </c>
-      <c r="I185">
-        <v>-696.4702087361994</v>
-      </c>
-      <c r="J185">
-        <v>892.1561205517164</v>
-      </c>
-      <c r="K185">
-        <v>2659.045222487247</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11">
-      <c r="A186">
-        <v>97</v>
-      </c>
-      <c r="B186" t="s">
-        <v>12</v>
-      </c>
-      <c r="C186" t="s">
-        <v>16</v>
-      </c>
-      <c r="D186" t="s">
-        <v>18</v>
-      </c>
-      <c r="E186">
-        <v>177.142</v>
-      </c>
-      <c r="F186">
-        <v>33.01891203355284</v>
-      </c>
-      <c r="G186">
-        <v>76.69573660816613</v>
-      </c>
-      <c r="H186">
-        <v>1403.649953822034</v>
-      </c>
-      <c r="I186">
-        <v>-628.8007083874184</v>
-      </c>
-      <c r="J186">
-        <v>840.0095564923655</v>
-      </c>
-      <c r="K186">
-        <v>2607.941576616197</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11">
-      <c r="A187">
-        <v>97</v>
-      </c>
-      <c r="B187" t="s">
-        <v>12</v>
-      </c>
-      <c r="C187" t="s">
-        <v>16</v>
-      </c>
-      <c r="D187" t="s">
-        <v>18</v>
-      </c>
-      <c r="E187">
-        <v>178.142</v>
-      </c>
-      <c r="F187">
-        <v>32.13949193870938</v>
-      </c>
-      <c r="G187">
-        <v>83.11696164938587</v>
-      </c>
-      <c r="H187">
-        <v>1416.925748482279</v>
-      </c>
-      <c r="I187">
-        <v>-559.4649088473476</v>
-      </c>
-      <c r="J187">
-        <v>787.8629924330148</v>
-      </c>
-      <c r="K187">
-        <v>2543.886155000506</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11">
-      <c r="A188">
-        <v>97</v>
-      </c>
-      <c r="B188" t="s">
-        <v>12</v>
-      </c>
-      <c r="C188" t="s">
-        <v>16</v>
-      </c>
-      <c r="D188" t="s">
-        <v>18</v>
-      </c>
-      <c r="E188">
-        <v>179.142</v>
-      </c>
-      <c r="F188">
-        <v>31.32673618299339</v>
-      </c>
-      <c r="G188">
-        <v>89.53818669060561</v>
-      </c>
-      <c r="H188">
-        <v>1429.522537147822</v>
-      </c>
-      <c r="I188">
-        <v>-488.4217790313677</v>
-      </c>
-      <c r="J188">
-        <v>735.7164283736639</v>
-      </c>
-      <c r="K188">
-        <v>2466.878957640173</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11">
-      <c r="A189">
-        <v>97</v>
-      </c>
-      <c r="B189" t="s">
-        <v>12</v>
-      </c>
-      <c r="C189" t="s">
-        <v>16</v>
-      </c>
-      <c r="D189" t="s">
-        <v>18</v>
-      </c>
-      <c r="E189">
-        <v>180.142</v>
-      </c>
-      <c r="F189">
-        <v>30.57263283414786</v>
-      </c>
-      <c r="G189">
-        <v>95.95941173182533</v>
-      </c>
-      <c r="H189">
-        <v>1441.506410344479</v>
-      </c>
-      <c r="I189">
-        <v>-415.6292775021506</v>
-      </c>
-      <c r="J189">
-        <v>683.569864314313</v>
-      </c>
-      <c r="K189">
-        <v>2376.919984535198</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11">
-      <c r="A190">
-        <v>97</v>
-      </c>
-      <c r="B190" t="s">
-        <v>12</v>
-      </c>
-      <c r="C190" t="s">
-        <v>16</v>
-      </c>
-      <c r="D190" t="s">
-        <v>18</v>
-      </c>
-      <c r="E190">
-        <v>181.142</v>
-      </c>
-      <c r="F190">
-        <v>29.87045539435248</v>
-      </c>
-      <c r="G190">
-        <v>102.3806367730451</v>
-      </c>
-      <c r="H190">
-        <v>1452.934255453302</v>
-      </c>
-      <c r="I190">
-        <v>-341.0443275906501</v>
-      </c>
-      <c r="J190">
-        <v>631.4233002549623</v>
-      </c>
-      <c r="K190">
-        <v>2274.009235685583</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11">
-      <c r="A191">
-        <v>97</v>
-      </c>
-      <c r="B191" t="s">
-        <v>12</v>
-      </c>
-      <c r="C191" t="s">
-        <v>16</v>
-      </c>
-      <c r="D191" t="s">
-        <v>18</v>
-      </c>
-      <c r="E191">
-        <v>182.142</v>
-      </c>
-      <c r="F191">
-        <v>29.21450940720283</v>
-      </c>
-      <c r="G191">
-        <v>108.8018618142648</v>
-      </c>
-      <c r="H191">
-        <v>1463.855389906736</v>
-      </c>
-      <c r="I191">
-        <v>-264.6227919044747</v>
-      </c>
-      <c r="J191">
-        <v>579.2767361956114</v>
-      </c>
-      <c r="K191">
-        <v>2158.146711091325</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11">
-      <c r="A192">
-        <v>97</v>
-      </c>
-      <c r="B192" t="s">
-        <v>12</v>
-      </c>
-      <c r="C192" t="s">
-        <v>16</v>
-      </c>
-      <c r="D192" t="s">
-        <v>18</v>
-      </c>
-      <c r="E192">
-        <v>183.142</v>
-      </c>
-      <c r="F192">
-        <v>28.59993752217662</v>
-      </c>
-      <c r="G192">
-        <v>115.2230868554845</v>
-      </c>
-      <c r="H192">
-        <v>1474.312847437761</v>
-      </c>
-      <c r="I192">
-        <v>-186.3194462085505</v>
-      </c>
-      <c r="J192">
-        <v>527.1301721362607</v>
-      </c>
-      <c r="K192">
-        <v>2029.332410752426</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11">
-      <c r="A193">
-        <v>97</v>
-      </c>
-      <c r="B193" t="s">
-        <v>12</v>
-      </c>
-      <c r="C193" t="s">
-        <v>16</v>
-      </c>
-      <c r="D193" t="s">
-        <v>18</v>
-      </c>
-      <c r="E193">
-        <v>184.142</v>
-      </c>
-      <c r="F193">
-        <v>28.02256772766041</v>
-      </c>
-      <c r="G193">
-        <v>121.6443118967043</v>
-      </c>
-      <c r="H193">
-        <v>1484.344402233291</v>
-      </c>
-      <c r="I193">
-        <v>-106.0879526626211</v>
-      </c>
-      <c r="J193">
-        <v>474.9836080769098</v>
-      </c>
-      <c r="K193">
-        <v>1887.566334668886</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11">
-      <c r="A194">
-        <v>97</v>
-      </c>
-      <c r="B194" t="s">
-        <v>12</v>
-      </c>
-      <c r="C194" t="s">
-        <v>16</v>
-      </c>
-      <c r="D194" t="s">
-        <v>18</v>
-      </c>
-      <c r="E194">
-        <v>185.142</v>
-      </c>
-      <c r="F194">
-        <v>27.47879389692755</v>
-      </c>
-      <c r="G194">
-        <v>128.065536937924</v>
-      </c>
-      <c r="H194">
-        <v>1493.983392578054</v>
-      </c>
-      <c r="I194">
-        <v>-23.88083239974416</v>
-      </c>
-      <c r="J194">
-        <v>422.8370440175589</v>
-      </c>
-      <c r="K194">
-        <v>1732.848482840704</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11">
-      <c r="A195">
-        <v>97</v>
-      </c>
-      <c r="B195" t="s">
-        <v>12</v>
-      </c>
-      <c r="C195" t="s">
-        <v>16</v>
-      </c>
-      <c r="D195" t="s">
-        <v>18</v>
-      </c>
-      <c r="E195">
-        <v>186.142</v>
-      </c>
-      <c r="F195">
-        <v>26.9654808226815</v>
-      </c>
-      <c r="G195">
-        <v>134.4867619791437</v>
-      </c>
-      <c r="H195">
-        <v>1503.259389326332</v>
-      </c>
-      <c r="I195">
-        <v>60.35056257044245</v>
-      </c>
-      <c r="J195">
-        <v>370.6904799582082</v>
-      </c>
-      <c r="K195">
-        <v>1565.178855267881</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11">
-      <c r="A196">
-        <v>97</v>
-      </c>
-      <c r="B196" t="s">
-        <v>12</v>
-      </c>
-      <c r="C196" t="s">
-        <v>16</v>
-      </c>
-      <c r="D196" t="s">
-        <v>18</v>
-      </c>
-      <c r="E196">
-        <v>187.142</v>
-      </c>
-      <c r="F196">
-        <v>26.47988802254813</v>
-      </c>
-      <c r="G196">
-        <v>140.9079870203634</v>
-      </c>
-      <c r="H196">
-        <v>1512.198743012241</v>
-      </c>
-      <c r="I196">
-        <v>146.6560781503073</v>
-      </c>
-      <c r="J196">
-        <v>318.5439158988572</v>
-      </c>
-      <c r="K196">
-        <v>1384.557451950416</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11">
-      <c r="A197">
-        <v>97</v>
-      </c>
-      <c r="B197" t="s">
-        <v>12</v>
-      </c>
-      <c r="C197" t="s">
-        <v>16</v>
-      </c>
-      <c r="D197" t="s">
-        <v>18</v>
-      </c>
-      <c r="E197">
-        <v>188.142</v>
-      </c>
-      <c r="F197">
-        <v>26.01960808427694</v>
-      </c>
-      <c r="G197">
-        <v>147.3292120615832</v>
-      </c>
-      <c r="H197">
-        <v>1520.82503511464</v>
-      </c>
-      <c r="I197">
-        <v>235.0867876517087</v>
-      </c>
-      <c r="J197">
-        <v>266.3973518395065</v>
-      </c>
-      <c r="K197">
-        <v>1190.98427288831</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11">
-      <c r="A198">
-        <v>97</v>
-      </c>
-      <c r="B198" t="s">
-        <v>12</v>
-      </c>
-      <c r="C198" t="s">
-        <v>16</v>
-      </c>
-      <c r="D198" t="s">
-        <v>18</v>
-      </c>
-      <c r="E198">
-        <v>189.142</v>
-      </c>
-      <c r="F198">
-        <v>25.58251638268424</v>
-      </c>
-      <c r="G198">
-        <v>153.7504371028029</v>
-      </c>
-      <c r="H198">
-        <v>1529.159452945234</v>
-      </c>
-      <c r="I198">
-        <v>325.6950220198202</v>
-      </c>
-      <c r="J198">
-        <v>214.2507877801556</v>
-      </c>
-      <c r="K198">
-        <v>984.4593180815614</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11">
-      <c r="A199">
-        <v>97</v>
-      </c>
-      <c r="B199" t="s">
-        <v>12</v>
-      </c>
-      <c r="C199" t="s">
-        <v>16</v>
-      </c>
-      <c r="D199" t="s">
-        <v>18</v>
-      </c>
-      <c r="E199">
-        <v>190.142</v>
-      </c>
-      <c r="F199">
-        <v>25.16672977073686</v>
-      </c>
-      <c r="G199">
-        <v>160.1716621440226</v>
-      </c>
-      <c r="H199">
-        <v>1537.221103165511</v>
-      </c>
-      <c r="I199">
-        <v>418.5344008012001</v>
-      </c>
-      <c r="J199">
-        <v>162.1042237208047</v>
-      </c>
-      <c r="K199">
-        <v>764.9825875301719</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11">
-      <c r="A200">
-        <v>97</v>
-      </c>
-      <c r="B200" t="s">
-        <v>12</v>
-      </c>
-      <c r="C200" t="s">
-        <v>16</v>
-      </c>
-      <c r="D200" t="s">
-        <v>18</v>
-      </c>
-      <c r="E200">
-        <v>191.142</v>
-      </c>
-      <c r="F200">
-        <v>24.7705724119586</v>
-      </c>
-      <c r="G200">
-        <v>166.5928871852423</v>
-      </c>
-      <c r="H200">
-        <v>1545.027275607391</v>
-      </c>
-      <c r="I200">
-        <v>513.6598638744078</v>
-      </c>
-      <c r="J200">
-        <v>109.957659661454</v>
-      </c>
-      <c r="K200">
-        <v>532.5540812341416</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11">
-      <c r="A201">
-        <v>97</v>
-      </c>
-      <c r="B201" t="s">
-        <v>12</v>
-      </c>
-      <c r="C201" t="s">
-        <v>16</v>
-      </c>
-      <c r="D201" t="s">
-        <v>18</v>
-      </c>
-      <c r="E201">
-        <v>192.142</v>
-      </c>
-      <c r="F201">
-        <v>24.39254733998061</v>
-      </c>
-      <c r="G201">
-        <v>173.0141122264621</v>
-      </c>
-      <c r="H201">
-        <v>1552.593666560804</v>
-      </c>
-      <c r="I201">
-        <v>611.1277039619739</v>
-      </c>
-      <c r="J201">
-        <v>57.81109560210312</v>
-      </c>
-      <c r="K201">
-        <v>287.1737991934689</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11">
-      <c r="A202">
-        <v>97</v>
-      </c>
-      <c r="B202" t="s">
-        <v>12</v>
-      </c>
-      <c r="C202" t="s">
-        <v>16</v>
-      </c>
-      <c r="D202" t="s">
-        <v>18</v>
-      </c>
-      <c r="E202">
-        <v>193.142</v>
-      </c>
-      <c r="F202">
-        <v>24.03131264455065</v>
-      </c>
-      <c r="G202">
-        <v>179.4353372676818</v>
-      </c>
-      <c r="H202">
-        <v>1559.934568778902</v>
-      </c>
-      <c r="I202">
-        <v>710.9955999429268</v>
-      </c>
-      <c r="J202">
-        <v>5.664531542752193</v>
-      </c>
-      <c r="K202">
-        <v>28.8417414081549</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11">
-      <c r="A203">
-        <v>97</v>
-      </c>
-      <c r="B203" t="s">
-        <v>12</v>
-      </c>
-      <c r="C203" t="s">
-        <v>16</v>
-      </c>
-      <c r="D203" t="s">
-        <v>18</v>
-      </c>
-      <c r="E203">
-        <v>194.142</v>
-      </c>
-      <c r="F203">
-        <v>23.68566142033155</v>
-      </c>
-      <c r="G203">
-        <v>185.8565623089015</v>
-      </c>
-      <c r="H203">
-        <v>1567.063033982087</v>
-      </c>
-      <c r="I203">
-        <v>813.3226509856303</v>
-      </c>
-      <c r="J203">
-        <v>-46.48203251659849</v>
-      </c>
-      <c r="K203">
-        <v>-242.4420921217998</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11">
-      <c r="A204">
-        <v>97</v>
-      </c>
-      <c r="B204" t="s">
-        <v>12</v>
-      </c>
-      <c r="C204" t="s">
-        <v>16</v>
-      </c>
-      <c r="D204" t="s">
-        <v>18</v>
-      </c>
-      <c r="E204">
-        <v>195.142</v>
-      </c>
-      <c r="F204">
-        <v>23.35450479561935</v>
-      </c>
-      <c r="G204">
-        <v>192.2777873501213</v>
-      </c>
-      <c r="H204">
-        <v>1573.991012503387</v>
-      </c>
-      <c r="I204">
-        <v>918.1694115211</v>
-      </c>
-      <c r="J204">
-        <v>-98.62859657594942</v>
-      </c>
-      <c r="K204">
-        <v>-526.6777013963967</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11">
-      <c r="A205">
-        <v>97</v>
-      </c>
-      <c r="B205" t="s">
-        <v>12</v>
-      </c>
-      <c r="C205" t="s">
-        <v>16</v>
-      </c>
-      <c r="D205" t="s">
-        <v>18</v>
-      </c>
-      <c r="E205">
-        <v>196.142</v>
-      </c>
-      <c r="F205">
-        <v>23.03685749718794</v>
-      </c>
-      <c r="G205">
-        <v>198.699012391341</v>
-      </c>
-      <c r="H205">
-        <v>1580.72947382832</v>
-      </c>
-      <c r="I205">
-        <v>1025.597927077505</v>
-      </c>
-      <c r="J205">
-        <v>-150.7751606353003</v>
-      </c>
-      <c r="K205">
-        <v>-823.8650864156359</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11">
-      <c r="A206">
-        <v>97</v>
-      </c>
-      <c r="B206" t="s">
-        <v>12</v>
-      </c>
-      <c r="C206" t="s">
-        <v>16</v>
-      </c>
-      <c r="D206" t="s">
-        <v>18</v>
-      </c>
-      <c r="E206">
-        <v>197.142</v>
-      </c>
-      <c r="F206">
-        <v>22.73182551530144</v>
-      </c>
-      <c r="G206">
-        <v>205.1202374325607</v>
-      </c>
-      <c r="H206">
-        <v>1587.288511082587</v>
-      </c>
-      <c r="I206">
-        <v>1135.671770997065</v>
-      </c>
-      <c r="J206">
-        <v>-202.9217246946513</v>
-      </c>
-      <c r="K206">
-        <v>-1134.004247179516</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11">
-      <c r="A207">
-        <v>97</v>
-      </c>
-      <c r="B207" t="s">
-        <v>12</v>
-      </c>
-      <c r="C207" t="s">
-        <v>16</v>
-      </c>
-      <c r="D207" t="s">
-        <v>18</v>
-      </c>
-      <c r="E207">
-        <v>198.142</v>
-      </c>
-      <c r="F207">
-        <v>22.43859551715954</v>
-      </c>
-      <c r="G207">
-        <v>211.5414624737805</v>
-      </c>
-      <c r="H207">
-        <v>1593.677431966362</v>
-      </c>
-      <c r="I207">
-        <v>1248.456082057064</v>
-      </c>
-      <c r="J207">
-        <v>-255.0682887540017</v>
-      </c>
-      <c r="K207">
-        <v>-1457.095183688035</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11">
-      <c r="A208">
-        <v>97</v>
-      </c>
-      <c r="B208" t="s">
-        <v>12</v>
-      </c>
-      <c r="C208" t="s">
-        <v>16</v>
-      </c>
-      <c r="D208" t="s">
-        <v>18</v>
-      </c>
-      <c r="E208">
-        <v>199.142</v>
-      </c>
-      <c r="F208">
-        <v>22.15642572329411</v>
-      </c>
-      <c r="G208">
-        <v>217.9626875150002</v>
-      </c>
-      <c r="H208">
-        <v>1599.9048381916</v>
-      </c>
-      <c r="I208">
-        <v>1364.017603017252</v>
-      </c>
-      <c r="J208">
-        <v>-307.2148528133526</v>
-      </c>
-      <c r="K208">
-        <v>-1793.137895941198</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11">
-      <c r="A209">
-        <v>97</v>
-      </c>
-      <c r="B209" t="s">
-        <v>12</v>
-      </c>
-      <c r="C209" t="s">
-        <v>16</v>
-      </c>
-      <c r="D209" t="s">
-        <v>18</v>
-      </c>
-      <c r="E209">
-        <v>200.142</v>
-      </c>
-      <c r="F209">
-        <v>21.88463801389149</v>
-      </c>
-      <c r="G209">
-        <v>224.3839125562199</v>
-      </c>
-      <c r="H209">
-        <v>1605.978695123741</v>
-      </c>
-      <c r="I209">
-        <v>1482.424720116435</v>
-      </c>
-      <c r="J209">
-        <v>-359.3614168727036</v>
-      </c>
-      <c r="K209">
-        <v>-2142.132383939003</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11">
-      <c r="A210">
-        <v>97</v>
-      </c>
-      <c r="B210" t="s">
-        <v>12</v>
-      </c>
-      <c r="C210" t="s">
-        <v>16</v>
-      </c>
-      <c r="D210" t="s">
-        <v>18</v>
-      </c>
-      <c r="E210">
-        <v>201.142</v>
-      </c>
-      <c r="F210">
-        <v>21.62261107381139</v>
-      </c>
-      <c r="G210">
-        <v>230.8051375974396</v>
-      </c>
-      <c r="H210">
-        <v>1611.90639304248</v>
-      </c>
-      <c r="I210">
-        <v>1603.747503541635</v>
-      </c>
-      <c r="J210">
-        <v>-411.5079809320545</v>
-      </c>
-      <c r="K210">
-        <v>-2504.07864768145</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11">
-      <c r="A211">
-        <v>97</v>
-      </c>
-      <c r="B211" t="s">
-        <v>12</v>
-      </c>
-      <c r="C211" t="s">
-        <v>16</v>
-      </c>
-      <c r="D211" t="s">
-        <v>18</v>
-      </c>
-      <c r="E211">
-        <v>202.142</v>
-      </c>
-      <c r="F211">
-        <v>21.36977441857413</v>
-      </c>
-      <c r="G211">
-        <v>237.2263626386594</v>
-      </c>
-      <c r="H211">
-        <v>1617.694801203539</v>
-      </c>
-      <c r="I211">
-        <v>1728.057748893767</v>
-      </c>
-      <c r="J211">
-        <v>-463.6545449914054</v>
-      </c>
-      <c r="K211">
-        <v>-2878.976687168537</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11">
-      <c r="A212">
-        <v>97</v>
-      </c>
-      <c r="B212" t="s">
-        <v>12</v>
-      </c>
-      <c r="C212" t="s">
-        <v>16</v>
-      </c>
-      <c r="D212" t="s">
-        <v>18</v>
-      </c>
-      <c r="E212">
-        <v>203.142</v>
-      </c>
-      <c r="F212">
-        <v>21.12560317058731</v>
-      </c>
-      <c r="G212">
-        <v>243.6475876798791</v>
-      </c>
-      <c r="H212">
-        <v>1623.350315693328</v>
-      </c>
-      <c r="I212">
-        <v>1855.429019674365</v>
-      </c>
-      <c r="J212">
-        <v>-515.8011090507558</v>
-      </c>
-      <c r="K212">
-        <v>-3266.826502400263</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11">
-      <c r="A213">
-        <v>97</v>
-      </c>
-      <c r="B213" t="s">
-        <v>12</v>
-      </c>
-      <c r="C213" t="s">
-        <v>16</v>
-      </c>
-      <c r="D213" t="s">
-        <v>18</v>
-      </c>
-      <c r="E213">
-        <v>204.142</v>
-      </c>
-      <c r="F213">
-        <v>20.88961347676545</v>
-      </c>
-      <c r="G213">
-        <v>250.0688127210988</v>
-      </c>
-      <c r="H213">
-        <v>1628.878901912567</v>
-      </c>
-      <c r="I213">
-        <v>1985.936690818516</v>
-      </c>
-      <c r="J213">
-        <v>-567.9476731101067</v>
-      </c>
-      <c r="K213">
-        <v>-3667.628093376634</v>
+        <v>3980078.032573796</v>
       </c>
     </row>
   </sheetData>
